--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_재비산_TSP.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_TSP</t>
+  </si>
+  <si>
+    <t>02_taxi_TSP</t>
+  </si>
+  <si>
+    <t>03_van_TSP</t>
+  </si>
+  <si>
+    <t>04_bus_TSP</t>
+  </si>
+  <si>
+    <t>05_LightTruck_TSP</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_TSP</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_TSP</t>
+  </si>
+  <si>
+    <t>Total_TSP (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1298 +397,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_TSP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_TSP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_TSP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_TSP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_TSP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_TSP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_TSP (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>269.9591993869868</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>11.7960740402756</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>69.2089181659608</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>88.13511931427826</v>
+      </c>
+      <c r="F2">
         <v>94.35376691048971</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>380.2749542132084</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>14.91622926476626</v>
       </c>
-      <c r="H2" t="n">
-        <v>840.5091419816875</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>928.6442612959657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>200.7799315598869</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>12.28757712528708</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>67.59940844117099</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>62.02100988782544</v>
+      </c>
+      <c r="F3">
         <v>98.37833516733522</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>267.2687178196606</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>11.40652826129185</v>
       </c>
-      <c r="H3" t="n">
-        <v>657.7204983746326</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>719.7415082624582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>217.1410951590981</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>13.27058329531005</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>56.3328403676425</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>88.13511931427826</v>
+      </c>
+      <c r="F4">
         <v>80.93853938767128</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>263.6812182516114</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>5.264551505211619</v>
       </c>
-      <c r="H4" t="n">
-        <v>636.628827966545</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>724.7639472808233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>202.3804801728532</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>16.21960180537895</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>74.03744734033013</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>71.81380092274522</v>
+      </c>
+      <c r="F5">
         <v>67.97048611561345</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>238.5687212752676</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>9.651677759554639</v>
       </c>
-      <c r="H5" t="n">
-        <v>608.8284144689979</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>680.6422153917432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>210.2053845029107</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>19.66012340045933</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>62.77087926680166</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>93.03151483173814</v>
+      </c>
+      <c r="F6">
         <v>78.7026681338682</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>247.5374701953904</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>10.52910301042324</v>
       </c>
-      <c r="H6" t="n">
-        <v>629.4056285098535</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>722.4371433415916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>206.6486098074299</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>15.72809872036746</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>77.25646678990971</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>70.18166908359194</v>
+      </c>
+      <c r="F7">
         <v>88.54050165060171</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>252.9187195474641</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>9.651677759554639</v>
       </c>
-      <c r="H7" t="n">
-        <v>650.7440742753276</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>720.9257433589196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>217.6746113634202</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>17.20260797540192</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>53.11382091806294</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>75.07806460105182</v>
+      </c>
+      <c r="F8">
         <v>79.59701663538944</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>193.7249766746534</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>12.28395351216045</v>
       </c>
-      <c r="H8" t="n">
-        <v>573.5969870790884</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>648.6750516801402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>296.9906870726404</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>9.830061700229667</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>106.2276418361259</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>101.1921740275046</v>
+      </c>
+      <c r="F9">
         <v>88.0933273998411</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>188.3437273225796</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>8.774252508686036</v>
       </c>
-      <c r="H9" t="n">
-        <v>698.2596978401027</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>799.4518718676072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>362.0796639999376</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>13.27058329531005</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>62.77087926680166</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>102.824305866658</v>
+      </c>
+      <c r="F10">
         <v>52.76656158975255</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>71.74999136098272</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>19.30335551910928</v>
       </c>
-      <c r="H10" t="n">
-        <v>581.9410350318938</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>684.7653408985517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>348.7417588918851</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>11.7960740402756</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>53.11382091806294</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>120.7777560973442</v>
+      </c>
+      <c r="F11">
         <v>37.56263706389164</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>44.84374460061421</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>3.509701003474414</v>
       </c>
-      <c r="H11" t="n">
-        <v>499.5677365182039</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>620.3454926155481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>250.930454766165</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>16.21960180537895</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>46.67578201890379</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>114.2492287407311</v>
+      </c>
+      <c r="F12">
         <v>23.70023529031258</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>60.98749265683531</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>1.754850501737207</v>
       </c>
-      <c r="H12" t="n">
-        <v>400.2684170393329</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>514.517645780064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>181.0398319999688</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>25.55816042059714</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>33.7997042205855</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>97.92791034919799</v>
+      </c>
+      <c r="F13">
         <v>19.22849278270644</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>62.78124244085988</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>4.387126254343018</v>
       </c>
-      <c r="H13" t="n">
-        <v>326.7945581190608</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>424.7224684682587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>135.6909546325896</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>14.7450925503445</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>17.70460697268764</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>96.29577851004474</v>
+      </c>
+      <c r="F14">
         <v>12.0737047705366</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>32.28749611244223</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>4.387126254343018</v>
       </c>
-      <c r="H14" t="n">
-        <v>216.8889812929436</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>313.1847598029883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>85.54043142631137</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>19.66012340045933</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>17.70460697268764</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>53.86035069205895</v>
+      </c>
+      <c r="F15">
         <v>10.73218201825476</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>23.31874719231939</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>1.754850501737207</v>
       </c>
-      <c r="H15" t="n">
-        <v>158.7109415117697</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>212.5712922038286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>50.32836194105224</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>11.30457095526412</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>6.438038899159142</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>24.4819775872995</v>
+      </c>
+      <c r="F16">
         <v>9.837833516733525</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>39.4624952485405</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>1.754850501737207</v>
       </c>
-      <c r="H16" t="n">
-        <v>119.1261510624867</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>143.6081286497862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>30.41042364636017</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>8.355552445195215</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>1.609509724789786</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>9.792791034919805</v>
+      </c>
+      <c r="F17">
         <v>14.30957602433967</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>37.66874546451591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17">
         <v>0.8774252508686036</v>
       </c>
-      <c r="H17" t="n">
-        <v>93.23123255606936</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>103.0240235909892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>22.76335805107662</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>12.77908021029857</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>3.219019449579571</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>3.264263678306603</v>
+      </c>
+      <c r="F18">
         <v>12.0737047705366</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>26.90624676036852</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>77.74140924185987</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>81.00567292016648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>13.33790510805271</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>5.898037020137799</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>4.828529174369357</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>1.632131839153301</v>
+      </c>
+      <c r="F19">
         <v>9.390659265972911</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>39.4624952485405</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>72.91762581707329</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>74.54975765622657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>18.13955094695168</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>4.423527765103349</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>4.828529174369357</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>13.05705471322641</v>
+      </c>
+      <c r="F20">
         <v>8.943485015212296</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>21.52499740829482</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>57.86009030993151</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>70.91714502315791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>36.45694062867742</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>6.881043190160769</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>4.828529174369357</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>8.160659195766504</v>
+      </c>
+      <c r="F21">
         <v>12.0737047705366</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>44.84374460061421</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>2.63227575260581</v>
       </c>
-      <c r="H21" t="n">
-        <v>107.7162381169641</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>115.8768973127306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>108.125950742614</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>8.847055530206697</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>30.58068477100592</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>35.90690046137261</v>
+      </c>
+      <c r="F22">
         <v>27.72480354715812</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>86.09998963317928</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.8774252508686036</v>
       </c>
-      <c r="H22" t="n">
-        <v>262.2559094750326</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>298.1628099364052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>183.5295742868053</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>6.389540105149284</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>41.84725284453442</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>96.29577851004474</v>
+      </c>
+      <c r="F23">
         <v>38.00981131465225</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>118.3874857456215</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>10.52910301042324</v>
       </c>
-      <c r="H23" t="n">
-        <v>398.692767307186</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>494.9885458172307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>288.2765890687124</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>6.389540105149284</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>41.84725284453442</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>120.7777560973442</v>
+      </c>
+      <c r="F24">
         <v>56.79112984659808</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>134.5312338018426</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>18.42593026824067</v>
       </c>
-      <c r="H24" t="n">
-        <v>546.2616759350775</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>667.0394320324216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>280.2738460038809</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>10.81306787025263</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>45.06627229411399</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>114.2492287407311</v>
+      </c>
+      <c r="F25">
         <v>47.40047058062517</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>161.4374805622112</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>3.509701003474414</v>
       </c>
-      <c r="H25" t="n">
-        <v>548.5008383145582</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>662.7500670552893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>269.9591993869868</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>11.7960740402756</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>69.2089181659608</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>88.13511931427826</v>
+      </c>
+      <c r="F26">
         <v>94.35376691048971</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>380.2749542132084</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>14.91622926476626</v>
       </c>
-      <c r="H26" t="n">
-        <v>840.5091419816875</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>928.6442612959657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>220.3421923850308</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>13.27058329531005</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>45.06627229411399</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>86.50298747512493</v>
+      </c>
+      <c r="F27">
         <v>91.22354715516541</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>328.256210476496</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>11.40652826129185</v>
       </c>
-      <c r="H27" t="n">
-        <v>709.5653338674081</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>796.0683213425331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>236.703355984242</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>23.59214808055119</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>67.59940844117099</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>96.29577851004474</v>
+      </c>
+      <c r="F28">
         <v>67.97048611561345</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>292.3812147960046</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>7.896827257817429</v>
       </c>
-      <c r="H28" t="n">
-        <v>696.1434406753997</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>792.4392191854445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>213.9399979331654</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>11.30457095526412</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>61.16136954201185</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>104.4564377058113</v>
+      </c>
+      <c r="F29">
         <v>59.92134960192238</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>184.7562277545306</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>1.754850501737207</v>
       </c>
-      <c r="H29" t="n">
-        <v>532.8383662886316</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>637.2948039944429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>224.6103220196077</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>12.28757712528708</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>57.94235009243228</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>86.50298747512493</v>
+      </c>
+      <c r="F30">
         <v>92.11789565668663</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>226.0124727870957</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>7.019402006948829</v>
       </c>
-      <c r="H30" t="n">
-        <v>619.9900196880581</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>706.4930071631831</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>229.5898065932806</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>12.28757712528708</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>61.16136954201185</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>91.39938299258485</v>
+      </c>
+      <c r="F31">
         <v>73.33657712474083</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>209.8687247308745</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>17.54850501737207</v>
       </c>
-      <c r="H31" t="n">
-        <v>603.792560133567</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>695.1919431261518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>270.1370381217607</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>13.27058329531005</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>38.62823339495485</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>99.5600421883513</v>
+      </c>
+      <c r="F32">
         <v>86.75180464755925</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>197.3124762427025</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>12.28395351216045</v>
       </c>
-      <c r="H32" t="n">
-        <v>618.3840892144478</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>717.9441314027991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>296.9906870726404</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>9.830061700229667</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>106.2276418361259</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>101.1921740275046</v>
+      </c>
+      <c r="F33">
         <v>88.0933273998411</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>188.3437273225796</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>8.774252508686036</v>
       </c>
-      <c r="H33" t="n">
-        <v>698.2596978401027</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>799.4518718676072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>362.0796639999376</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>13.27058329531005</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>62.77087926680166</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>102.824305866658</v>
+      </c>
+      <c r="F34">
         <v>52.76656158975255</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>71.74999136098272</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>19.30335551910928</v>
       </c>
-      <c r="H34" t="n">
-        <v>581.9410350318938</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>684.7653408985517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>348.7417588918851</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>11.7960740402756</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>53.11382091806294</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>120.7777560973442</v>
+      </c>
+      <c r="F35">
         <v>37.56263706389164</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>44.84374460061421</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>3.509701003474414</v>
       </c>
-      <c r="H35" t="n">
-        <v>499.5677365182039</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>620.3454926155481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>250.930454766165</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>16.21960180537895</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>46.67578201890379</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>114.2492287407311</v>
+      </c>
+      <c r="F36">
         <v>23.70023529031258</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>60.98749265683531</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>1.754850501737207</v>
       </c>
-      <c r="H36" t="n">
-        <v>400.2684170393329</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>514.517645780064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>181.0398319999688</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>25.55816042059714</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>33.7997042205855</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>97.92791034919799</v>
+      </c>
+      <c r="F37">
         <v>19.22849278270644</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>62.78124244085988</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>4.387126254343018</v>
       </c>
-      <c r="H37" t="n">
-        <v>326.7945581190608</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>424.7224684682587</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>135.6909546325896</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>14.7450925503445</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>17.70460697268764</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>96.29577851004474</v>
+      </c>
+      <c r="F38">
         <v>12.0737047705366</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>32.28749611244223</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>4.387126254343018</v>
       </c>
-      <c r="H38" t="n">
-        <v>216.8889812929436</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>313.1847598029883</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>85.54043142631137</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>19.66012340045933</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>17.70460697268764</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>53.86035069205895</v>
+      </c>
+      <c r="F39">
         <v>10.73218201825476</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>23.31874719231939</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>1.754850501737207</v>
       </c>
-      <c r="H39" t="n">
-        <v>158.7109415117697</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>212.5712922038286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>50.32836194105224</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>11.30457095526412</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>6.438038899159142</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>24.4819775872995</v>
+      </c>
+      <c r="F40">
         <v>9.837833516733525</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>39.4624952485405</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>1.754850501737207</v>
       </c>
-      <c r="H40" t="n">
-        <v>119.1261510624867</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>143.6081286497862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>30.41042364636017</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>8.355552445195215</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>1.609509724789786</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>9.792791034919805</v>
+      </c>
+      <c r="F41">
         <v>14.30957602433967</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>37.66874546451591</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.8774252508686036</v>
       </c>
-      <c r="H41" t="n">
-        <v>93.23123255606936</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>103.0240235909892</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>22.76335805107662</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>12.77908021029857</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>3.219019449579571</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>3.264263678306603</v>
+      </c>
+      <c r="F42">
         <v>12.0737047705366</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>26.90624676036852</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>77.74140924185987</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>81.00567292016648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>13.33790510805271</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>5.898037020137799</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>4.828529174369357</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>1.632131839153301</v>
+      </c>
+      <c r="F43">
         <v>9.390659265972911</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>39.4624952485405</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>72.91762581707329</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>74.54975765622657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>18.13955094695168</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>4.423527765103349</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>4.828529174369357</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>13.05705471322641</v>
+      </c>
+      <c r="F44">
         <v>8.943485015212296</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>21.52499740829482</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>57.86009030993151</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>70.91714502315791</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>36.45694062867742</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>6.881043190160769</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>4.828529174369357</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>8.160659195766504</v>
+      </c>
+      <c r="F45">
         <v>12.0737047705366</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>44.84374460061421</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>2.63227575260581</v>
       </c>
-      <c r="H45" t="n">
-        <v>107.7162381169641</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>115.8768973127306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>108.125950742614</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>8.847055530206697</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>30.58068477100592</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>35.90690046137261</v>
+      </c>
+      <c r="F46">
         <v>27.72480354715812</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>86.09998963317928</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.8774252508686036</v>
       </c>
-      <c r="H46" t="n">
-        <v>262.2559094750326</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>298.1628099364052</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>183.5295742868053</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>6.389540105149284</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>41.84725284453442</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>96.29577851004474</v>
+      </c>
+      <c r="F47">
         <v>38.00981131465225</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>118.3874857456215</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>10.52910301042324</v>
       </c>
-      <c r="H47" t="n">
-        <v>398.692767307186</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>494.9885458172307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>288.2765890687124</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>6.389540105149284</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>41.84725284453442</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>120.7777560973442</v>
+      </c>
+      <c r="F48">
         <v>56.79112984659808</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>134.5312338018426</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>18.42593026824067</v>
       </c>
-      <c r="H48" t="n">
-        <v>546.2616759350775</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>667.0394320324216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>280.2738460038809</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>10.81306787025263</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>45.06627229411399</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>114.2492287407311</v>
+      </c>
+      <c r="F49">
         <v>47.40047058062517</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>161.4374805622112</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>3.509701003474414</v>
       </c>
-      <c r="H49" t="n">
-        <v>548.5008383145582</v>
+      <c r="I49">
+        <v>662.7500670552893</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>269.9591993869868</v>
+        <v>457.756903308369</v>
       </c>
       <c r="C2">
-        <v>11.7960740402756</v>
+        <v>20.00203859003254</v>
       </c>
       <c r="D2">
-        <v>69.2089181659608</v>
+        <v>117.3542525422813</v>
       </c>
       <c r="E2">
-        <v>88.13511931427826</v>
+        <v>149.4465066633413</v>
       </c>
       <c r="F2">
-        <v>94.35376691048971</v>
+        <v>159.9911699786565</v>
       </c>
       <c r="G2">
-        <v>380.2749542132084</v>
+        <v>644.8140527963099</v>
       </c>
       <c r="H2">
-        <v>14.91622926476626</v>
+        <v>25.29273657938627</v>
       </c>
       <c r="I2">
-        <v>928.6442612959657</v>
+        <v>1574.657660458377</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>200.7799315598869</v>
+        <v>340.4529274276339</v>
       </c>
       <c r="C3">
-        <v>12.28757712528708</v>
+        <v>20.83545686461722</v>
       </c>
       <c r="D3">
-        <v>67.59940844117099</v>
+        <v>114.6250838785073</v>
       </c>
       <c r="E3">
-        <v>62.02100988782544</v>
+        <v>105.1660602445735</v>
       </c>
       <c r="F3">
-        <v>98.37833516733522</v>
+        <v>166.815437892438</v>
       </c>
       <c r="G3">
-        <v>267.2687178196606</v>
+        <v>453.1947823898593</v>
       </c>
       <c r="H3">
-        <v>11.40652826129185</v>
+        <v>19.34150444306009</v>
       </c>
       <c r="I3">
-        <v>719.7415082624582</v>
+        <v>1220.431253140689</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>217.1410951590981</v>
+        <v>368.1957700523836</v>
       </c>
       <c r="C4">
-        <v>13.27058329531005</v>
+        <v>22.5022934137866</v>
       </c>
       <c r="D4">
-        <v>56.3328403676425</v>
+        <v>95.52090323208945</v>
       </c>
       <c r="E4">
-        <v>88.13511931427826</v>
+        <v>149.4465066633413</v>
       </c>
       <c r="F4">
-        <v>80.93853938767128</v>
+        <v>137.2436102660513</v>
       </c>
       <c r="G4">
-        <v>263.6812182516114</v>
+        <v>447.1116309483848</v>
       </c>
       <c r="H4">
-        <v>5.264551505211619</v>
+        <v>8.926848204489271</v>
       </c>
       <c r="I4">
-        <v>724.7639472808233</v>
+        <v>1228.947562780526</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>202.3804801728532</v>
+        <v>343.1669011626639</v>
       </c>
       <c r="C5">
-        <v>16.21960180537895</v>
+        <v>27.50280306129474</v>
       </c>
       <c r="D5">
-        <v>74.03744734033013</v>
+        <v>125.5417585336033</v>
       </c>
       <c r="E5">
-        <v>71.81380092274522</v>
+        <v>121.7712276516115</v>
       </c>
       <c r="F5">
-        <v>67.97048611561345</v>
+        <v>115.2543025438663</v>
       </c>
       <c r="G5">
-        <v>238.5687212752676</v>
+        <v>404.5295708580623</v>
       </c>
       <c r="H5">
-        <v>9.651677759554639</v>
+        <v>16.365888374897</v>
       </c>
       <c r="I5">
-        <v>680.6422153917432</v>
+        <v>1154.132452185999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>210.2053845029107</v>
+        <v>356.4352172005877</v>
       </c>
       <c r="C6">
-        <v>19.66012340045933</v>
+        <v>33.33673098338756</v>
       </c>
       <c r="D6">
-        <v>62.77087926680166</v>
+        <v>106.4375778871854</v>
       </c>
       <c r="E6">
-        <v>93.03151483173814</v>
+        <v>157.7490903668603</v>
       </c>
       <c r="F6">
-        <v>78.7026681338682</v>
+        <v>133.4523503139504</v>
       </c>
       <c r="G6">
-        <v>247.5374701953904</v>
+        <v>419.737449461749</v>
       </c>
       <c r="H6">
-        <v>10.52910301042324</v>
+        <v>17.85369640897854</v>
       </c>
       <c r="I6">
-        <v>722.4371433415916</v>
+        <v>1225.002112622699</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>206.6486098074299</v>
+        <v>350.404164456077</v>
       </c>
       <c r="C7">
-        <v>15.72809872036746</v>
+        <v>26.66938478671005</v>
       </c>
       <c r="D7">
-        <v>77.25646678990971</v>
+        <v>131.0000958611513</v>
       </c>
       <c r="E7">
-        <v>70.18166908359194</v>
+        <v>119.0036997504385</v>
       </c>
       <c r="F7">
-        <v>88.54050165060171</v>
+        <v>150.1338941031942</v>
       </c>
       <c r="G7">
-        <v>252.9187195474641</v>
+        <v>428.8621766239607</v>
       </c>
       <c r="H7">
-        <v>9.651677759554639</v>
+        <v>16.365888374897</v>
       </c>
       <c r="I7">
-        <v>720.9257433589196</v>
+        <v>1222.439303956429</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>217.6746113634202</v>
+        <v>369.1004279640603</v>
       </c>
       <c r="C8">
-        <v>17.20260797540192</v>
+        <v>29.16963961046412</v>
       </c>
       <c r="D8">
-        <v>53.11382091806294</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E8">
-        <v>75.07806460105182</v>
+        <v>127.3062834539574</v>
       </c>
       <c r="F8">
-        <v>79.59701663538944</v>
+        <v>134.9688542947908</v>
       </c>
       <c r="G8">
-        <v>193.7249766746534</v>
+        <v>328.4901778396295</v>
       </c>
       <c r="H8">
-        <v>12.28395351216045</v>
+        <v>20.82931247714163</v>
       </c>
       <c r="I8">
-        <v>648.6750516801402</v>
+        <v>1099.927261544585</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>296.9906870726404</v>
+        <v>503.5929041666509</v>
       </c>
       <c r="C9">
-        <v>9.830061700229667</v>
+        <v>16.66836549169378</v>
       </c>
       <c r="D9">
-        <v>106.2276418361259</v>
+        <v>180.125131809083</v>
       </c>
       <c r="E9">
-        <v>101.1921740275046</v>
+        <v>171.5867298727252</v>
       </c>
       <c r="F9">
-        <v>88.0933273998411</v>
+        <v>149.375642112774</v>
       </c>
       <c r="G9">
-        <v>188.3437273225796</v>
+        <v>319.3654506774178</v>
       </c>
       <c r="H9">
-        <v>8.774252508686036</v>
+        <v>14.87808034081545</v>
       </c>
       <c r="I9">
-        <v>799.4518718676072</v>
+        <v>1355.59230447116</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>362.0796639999376</v>
+        <v>613.9611693911985</v>
       </c>
       <c r="C10">
-        <v>13.27058329531005</v>
+        <v>22.5022934137866</v>
       </c>
       <c r="D10">
-        <v>62.77087926680166</v>
+        <v>106.4375778871854</v>
       </c>
       <c r="E10">
-        <v>102.824305866658</v>
+        <v>174.3542577738982</v>
       </c>
       <c r="F10">
-        <v>52.76656158975255</v>
+        <v>89.47373486958038</v>
       </c>
       <c r="G10">
-        <v>71.74999136098272</v>
+        <v>121.6630288294925</v>
       </c>
       <c r="H10">
-        <v>19.30335551910928</v>
+        <v>32.731776749794</v>
       </c>
       <c r="I10">
-        <v>684.7653408985517</v>
+        <v>1161.123838914936</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>348.7417588918851</v>
+        <v>591.3447215992827</v>
       </c>
       <c r="C11">
-        <v>11.7960740402756</v>
+        <v>20.00203859003254</v>
       </c>
       <c r="D11">
-        <v>53.11382091806294</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E11">
-        <v>120.7777560973442</v>
+        <v>204.7970646868012</v>
       </c>
       <c r="F11">
-        <v>37.56263706389164</v>
+        <v>63.69316719529453</v>
       </c>
       <c r="G11">
-        <v>44.84374460061421</v>
+        <v>76.03939301843276</v>
       </c>
       <c r="H11">
-        <v>3.509701003474414</v>
+        <v>5.951232136326181</v>
       </c>
       <c r="I11">
-        <v>620.3454926155481</v>
+        <v>1051.890183130711</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>250.930454766165</v>
+        <v>425.4907711252361</v>
       </c>
       <c r="C12">
-        <v>16.21960180537895</v>
+        <v>27.50280306129474</v>
       </c>
       <c r="D12">
-        <v>46.67578201890379</v>
+        <v>79.14589124944555</v>
       </c>
       <c r="E12">
-        <v>114.2492287407311</v>
+        <v>193.7269530821092</v>
       </c>
       <c r="F12">
-        <v>23.70023529031258</v>
+        <v>40.18735549226917</v>
       </c>
       <c r="G12">
-        <v>60.98749265683531</v>
+        <v>103.4135745050686</v>
       </c>
       <c r="H12">
-        <v>1.754850501737207</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I12">
-        <v>514.517645780064</v>
+        <v>872.4429645835863</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>181.0398319999688</v>
+        <v>306.9805846955992</v>
       </c>
       <c r="C13">
-        <v>25.55816042059714</v>
+        <v>43.33775027840383</v>
       </c>
       <c r="D13">
-        <v>33.7997042205855</v>
+        <v>57.31254193925367</v>
       </c>
       <c r="E13">
-        <v>97.92791034919799</v>
+        <v>166.0516740703793</v>
       </c>
       <c r="F13">
-        <v>19.22849278270644</v>
+        <v>32.60483558806743</v>
       </c>
       <c r="G13">
-        <v>62.78124244085988</v>
+        <v>106.4551502258059</v>
       </c>
       <c r="H13">
-        <v>4.387126254343018</v>
+        <v>7.439040170407726</v>
       </c>
       <c r="I13">
-        <v>424.7224684682587</v>
+        <v>720.181576967917</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>135.6909546325896</v>
+        <v>230.0846622030866</v>
       </c>
       <c r="C14">
-        <v>14.7450925503445</v>
+        <v>25.00254823754067</v>
       </c>
       <c r="D14">
-        <v>17.70460697268764</v>
+        <v>30.02085530151382</v>
       </c>
       <c r="E14">
-        <v>96.29577851004474</v>
+        <v>163.2841461692063</v>
       </c>
       <c r="F14">
-        <v>12.0737047705366</v>
+        <v>20.47280374134467</v>
       </c>
       <c r="G14">
-        <v>32.28749611244223</v>
+        <v>54.74836297327161</v>
       </c>
       <c r="H14">
-        <v>4.387126254343018</v>
+        <v>7.439040170407726</v>
       </c>
       <c r="I14">
-        <v>313.1847598029883</v>
+        <v>531.0524187963714</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>85.54043142631137</v>
+        <v>145.0468185054845</v>
       </c>
       <c r="C15">
-        <v>19.66012340045933</v>
+        <v>33.33673098338756</v>
       </c>
       <c r="D15">
-        <v>17.70460697268764</v>
+        <v>30.02085530151382</v>
       </c>
       <c r="E15">
-        <v>53.86035069205895</v>
+        <v>91.3284207387086</v>
       </c>
       <c r="F15">
-        <v>10.73218201825476</v>
+        <v>18.19804777008415</v>
       </c>
       <c r="G15">
-        <v>23.31874719231939</v>
+        <v>39.54048436958506</v>
       </c>
       <c r="H15">
-        <v>1.754850501737207</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I15">
-        <v>212.5712922038286</v>
+        <v>360.4469737369268</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>50.32836194105224</v>
+        <v>85.33939633482765</v>
       </c>
       <c r="C16">
-        <v>11.30457095526412</v>
+        <v>19.16862031544785</v>
       </c>
       <c r="D16">
-        <v>6.438038899159142</v>
+        <v>10.91667465509594</v>
       </c>
       <c r="E16">
-        <v>24.4819775872995</v>
+        <v>41.51291851759482</v>
       </c>
       <c r="F16">
-        <v>9.837833516733525</v>
+        <v>16.6815437892438</v>
       </c>
       <c r="G16">
-        <v>39.4624952485405</v>
+        <v>66.91466585622085</v>
       </c>
       <c r="H16">
-        <v>1.754850501737207</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I16">
-        <v>143.6081286497862</v>
+        <v>243.509435536594</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>30.41042364636017</v>
+        <v>51.56550096556727</v>
       </c>
       <c r="C17">
-        <v>8.355552445195215</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D17">
-        <v>1.609509724789786</v>
+        <v>2.729168663773985</v>
       </c>
       <c r="E17">
-        <v>9.792791034919805</v>
+        <v>16.60516740703793</v>
       </c>
       <c r="F17">
-        <v>14.30957602433967</v>
+        <v>24.26406369344553</v>
       </c>
       <c r="G17">
-        <v>37.66874546451591</v>
+        <v>63.87309013548353</v>
       </c>
       <c r="H17">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I17">
-        <v>103.0240235909892</v>
+        <v>174.6929095673295</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>22.76335805107662</v>
+        <v>38.59873756486905</v>
       </c>
       <c r="C18">
-        <v>12.77908021029857</v>
+        <v>21.66887513920192</v>
       </c>
       <c r="D18">
-        <v>3.219019449579571</v>
+        <v>5.458337327547969</v>
       </c>
       <c r="E18">
-        <v>3.264263678306603</v>
+        <v>5.535055802345978</v>
       </c>
       <c r="F18">
-        <v>12.0737047705366</v>
+        <v>20.47280374134467</v>
       </c>
       <c r="G18">
-        <v>26.90624676036852</v>
+        <v>45.62363581105965</v>
       </c>
       <c r="I18">
-        <v>81.00567292016648</v>
+        <v>137.3574453863692</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>13.33790510805271</v>
+        <v>22.61644779191545</v>
       </c>
       <c r="C19">
-        <v>5.898037020137799</v>
+        <v>10.00101929501627</v>
       </c>
       <c r="D19">
-        <v>4.828529174369357</v>
+        <v>8.187505991321954</v>
       </c>
       <c r="E19">
-        <v>1.632131839153301</v>
+        <v>2.767527901172989</v>
       </c>
       <c r="F19">
-        <v>9.390659265972911</v>
+        <v>15.92329179882363</v>
       </c>
       <c r="G19">
-        <v>39.4624952485405</v>
+        <v>66.91466585622085</v>
       </c>
       <c r="I19">
-        <v>74.54975765622657</v>
+        <v>126.4104586344712</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>18.13955094695168</v>
+        <v>30.75836899700504</v>
       </c>
       <c r="C20">
-        <v>4.423527765103349</v>
+        <v>7.500764471262202</v>
       </c>
       <c r="D20">
-        <v>4.828529174369357</v>
+        <v>8.187505991321954</v>
       </c>
       <c r="E20">
-        <v>13.05705471322641</v>
+        <v>22.14022320938391</v>
       </c>
       <c r="F20">
-        <v>8.943485015212296</v>
+        <v>15.16503980840346</v>
       </c>
       <c r="G20">
-        <v>21.52499740829482</v>
+        <v>36.49890864884774</v>
       </c>
       <c r="I20">
-        <v>70.91714502315791</v>
+        <v>120.2508111262243</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>36.45694062867742</v>
+        <v>61.81829063123557</v>
       </c>
       <c r="C21">
-        <v>6.881043190160769</v>
+        <v>11.66785584418565</v>
       </c>
       <c r="D21">
-        <v>4.828529174369357</v>
+        <v>8.187505991321954</v>
       </c>
       <c r="E21">
-        <v>8.160659195766504</v>
+        <v>13.83763950586494</v>
       </c>
       <c r="F21">
-        <v>12.0737047705366</v>
+        <v>20.47280374134467</v>
       </c>
       <c r="G21">
-        <v>44.84374460061421</v>
+        <v>76.03939301843276</v>
       </c>
       <c r="H21">
-        <v>2.63227575260581</v>
+        <v>4.463424102244636</v>
       </c>
       <c r="I21">
-        <v>115.8768973127306</v>
+        <v>196.4869128346302</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>108.125950742614</v>
+        <v>183.3440034331281</v>
       </c>
       <c r="C22">
-        <v>8.847055530206697</v>
+        <v>15.0015289425244</v>
       </c>
       <c r="D22">
-        <v>30.58068477100592</v>
+        <v>51.8542046117057</v>
       </c>
       <c r="E22">
-        <v>35.90690046137261</v>
+        <v>60.88561382580574</v>
       </c>
       <c r="F22">
-        <v>27.72480354715812</v>
+        <v>47.01162340605072</v>
       </c>
       <c r="G22">
-        <v>86.09998963317928</v>
+        <v>145.995634595391</v>
       </c>
       <c r="H22">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I22">
-        <v>298.1628099364052</v>
+        <v>505.5804168486871</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>183.5295742868053</v>
+        <v>311.2023216167567</v>
       </c>
       <c r="C23">
-        <v>6.389540105149284</v>
+        <v>10.83443756960096</v>
       </c>
       <c r="D23">
-        <v>41.84725284453442</v>
+        <v>70.9583852581236</v>
       </c>
       <c r="E23">
-        <v>96.29577851004474</v>
+        <v>163.2841461692063</v>
       </c>
       <c r="F23">
-        <v>38.00981131465225</v>
+        <v>64.45141918571471</v>
       </c>
       <c r="G23">
-        <v>118.3874857456215</v>
+        <v>200.7439975686625</v>
       </c>
       <c r="H23">
-        <v>10.52910301042324</v>
+        <v>17.85369640897854</v>
       </c>
       <c r="I23">
-        <v>494.9885458172307</v>
+        <v>839.3284037770433</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>288.2765890687124</v>
+        <v>488.8168249425996</v>
       </c>
       <c r="C24">
-        <v>6.389540105149284</v>
+        <v>10.83443756960096</v>
       </c>
       <c r="D24">
-        <v>41.84725284453442</v>
+        <v>70.9583852581236</v>
       </c>
       <c r="E24">
-        <v>120.7777560973442</v>
+        <v>204.7970646868012</v>
       </c>
       <c r="F24">
-        <v>56.79112984659808</v>
+        <v>96.29800278336195</v>
       </c>
       <c r="G24">
-        <v>134.5312338018426</v>
+        <v>228.1181790552983</v>
       </c>
       <c r="H24">
-        <v>18.42593026824067</v>
+        <v>31.24396871571244</v>
       </c>
       <c r="I24">
-        <v>667.0394320324216</v>
+        <v>1131.066863011498</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>280.2738460038809</v>
+        <v>475.2469562674502</v>
       </c>
       <c r="C25">
-        <v>10.81306787025263</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D25">
-        <v>45.06627229411399</v>
+        <v>76.41672258567155</v>
       </c>
       <c r="E25">
-        <v>114.2492287407311</v>
+        <v>193.7269530821092</v>
       </c>
       <c r="F25">
-        <v>47.40047058062517</v>
+        <v>80.37471098453834</v>
       </c>
       <c r="G25">
-        <v>161.4374805622112</v>
+        <v>273.7418148663581</v>
       </c>
       <c r="H25">
-        <v>3.509701003474414</v>
+        <v>5.951232136326181</v>
       </c>
       <c r="I25">
-        <v>662.7500670552893</v>
+        <v>1123.793591963317</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>269.9591993869868</v>
+        <v>457.756903308369</v>
       </c>
       <c r="C26">
-        <v>11.7960740402756</v>
+        <v>20.00203859003254</v>
       </c>
       <c r="D26">
-        <v>69.2089181659608</v>
+        <v>117.3542525422813</v>
       </c>
       <c r="E26">
-        <v>88.13511931427826</v>
+        <v>149.4465066633413</v>
       </c>
       <c r="F26">
-        <v>94.35376691048971</v>
+        <v>159.9911699786565</v>
       </c>
       <c r="G26">
-        <v>380.2749542132084</v>
+        <v>644.8140527963099</v>
       </c>
       <c r="H26">
-        <v>14.91622926476626</v>
+        <v>25.29273657938627</v>
       </c>
       <c r="I26">
-        <v>928.6442612959657</v>
+        <v>1574.657660458377</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>220.3421923850308</v>
+        <v>373.6237175224435</v>
       </c>
       <c r="C27">
-        <v>13.27058329531005</v>
+        <v>22.5022934137866</v>
       </c>
       <c r="D27">
-        <v>45.06627229411399</v>
+        <v>76.41672258567155</v>
       </c>
       <c r="E27">
-        <v>86.50298747512493</v>
+        <v>146.6789787621684</v>
       </c>
       <c r="F27">
-        <v>91.22354715516541</v>
+        <v>154.6834060457153</v>
       </c>
       <c r="G27">
-        <v>328.256210476496</v>
+        <v>556.6083568949281</v>
       </c>
       <c r="H27">
-        <v>11.40652826129185</v>
+        <v>19.34150444306009</v>
       </c>
       <c r="I27">
-        <v>796.0683213425331</v>
+        <v>1349.854979667773</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>236.703355984242</v>
+        <v>401.3665601471931</v>
       </c>
       <c r="C28">
-        <v>23.59214808055119</v>
+        <v>40.00407718006507</v>
       </c>
       <c r="D28">
-        <v>67.59940844117099</v>
+        <v>114.6250838785073</v>
       </c>
       <c r="E28">
-        <v>96.29577851004474</v>
+        <v>163.2841461692063</v>
       </c>
       <c r="F28">
-        <v>67.97048611561345</v>
+        <v>115.2543025438663</v>
       </c>
       <c r="G28">
-        <v>292.3812147960046</v>
+        <v>495.7768424801818</v>
       </c>
       <c r="H28">
-        <v>7.896827257817429</v>
+        <v>13.39027230673391</v>
       </c>
       <c r="I28">
-        <v>792.4392191854445</v>
+        <v>1343.701284705754</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>213.9399979331654</v>
+        <v>362.7678225823238</v>
       </c>
       <c r="C29">
-        <v>11.30457095526412</v>
+        <v>19.16862031544785</v>
       </c>
       <c r="D29">
-        <v>61.16136954201185</v>
+        <v>103.7084092234114</v>
       </c>
       <c r="E29">
-        <v>104.4564377058113</v>
+        <v>177.1217856750713</v>
       </c>
       <c r="F29">
-        <v>59.92134960192238</v>
+        <v>101.6057667163032</v>
       </c>
       <c r="G29">
-        <v>184.7562277545306</v>
+        <v>313.2822992359431</v>
       </c>
       <c r="H29">
-        <v>1.754850501737207</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I29">
-        <v>637.2948039944429</v>
+        <v>1080.630319816664</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>224.6103220196077</v>
+        <v>380.8609808158564</v>
       </c>
       <c r="C30">
-        <v>12.28757712528708</v>
+        <v>20.83545686461722</v>
       </c>
       <c r="D30">
-        <v>57.94235009243228</v>
+        <v>98.25007189586343</v>
       </c>
       <c r="E30">
-        <v>86.50298747512493</v>
+        <v>146.6789787621684</v>
       </c>
       <c r="F30">
-        <v>92.11789565668663</v>
+        <v>156.1999100265556</v>
       </c>
       <c r="G30">
-        <v>226.0124727870957</v>
+        <v>383.2385408129012</v>
       </c>
       <c r="H30">
-        <v>7.019402006948829</v>
+        <v>11.90246427265236</v>
       </c>
       <c r="I30">
-        <v>706.4930071631831</v>
+        <v>1197.966403450615</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>229.5898065932806</v>
+        <v>389.3044546581715</v>
       </c>
       <c r="C31">
-        <v>12.28757712528708</v>
+        <v>20.83545686461722</v>
       </c>
       <c r="D31">
-        <v>61.16136954201185</v>
+        <v>103.7084092234114</v>
       </c>
       <c r="E31">
-        <v>91.39938299258485</v>
+        <v>154.9815624656873</v>
       </c>
       <c r="F31">
-        <v>73.33657712474083</v>
+        <v>124.3533264289083</v>
       </c>
       <c r="G31">
-        <v>209.8687247308745</v>
+        <v>355.8643593262655</v>
       </c>
       <c r="H31">
-        <v>17.54850501737207</v>
+        <v>29.7561606816309</v>
       </c>
       <c r="I31">
-        <v>695.1919431261518</v>
+        <v>1178.803729648692</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>270.1370381217607</v>
+        <v>458.0584559455944</v>
       </c>
       <c r="C32">
-        <v>13.27058329531005</v>
+        <v>22.5022934137866</v>
       </c>
       <c r="D32">
-        <v>38.62823339495485</v>
+        <v>65.50004793057563</v>
       </c>
       <c r="E32">
-        <v>99.5600421883513</v>
+        <v>168.8192019715523</v>
       </c>
       <c r="F32">
-        <v>86.75180464755925</v>
+        <v>147.1008861415136</v>
       </c>
       <c r="G32">
-        <v>197.3124762427025</v>
+        <v>334.5733292811042</v>
       </c>
       <c r="H32">
-        <v>12.28395351216045</v>
+        <v>20.82931247714163</v>
       </c>
       <c r="I32">
-        <v>717.9441314027991</v>
+        <v>1217.383527161268</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>296.9906870726404</v>
+        <v>503.5929041666509</v>
       </c>
       <c r="C33">
-        <v>9.830061700229667</v>
+        <v>16.66836549169378</v>
       </c>
       <c r="D33">
-        <v>106.2276418361259</v>
+        <v>180.125131809083</v>
       </c>
       <c r="E33">
-        <v>101.1921740275046</v>
+        <v>171.5867298727252</v>
       </c>
       <c r="F33">
-        <v>88.0933273998411</v>
+        <v>149.375642112774</v>
       </c>
       <c r="G33">
-        <v>188.3437273225796</v>
+        <v>319.3654506774178</v>
       </c>
       <c r="H33">
-        <v>8.774252508686036</v>
+        <v>14.87808034081545</v>
       </c>
       <c r="I33">
-        <v>799.4518718676072</v>
+        <v>1355.59230447116</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>362.0796639999376</v>
+        <v>613.9611693911985</v>
       </c>
       <c r="C34">
-        <v>13.27058329531005</v>
+        <v>22.5022934137866</v>
       </c>
       <c r="D34">
-        <v>62.77087926680166</v>
+        <v>106.4375778871854</v>
       </c>
       <c r="E34">
-        <v>102.824305866658</v>
+        <v>174.3542577738982</v>
       </c>
       <c r="F34">
-        <v>52.76656158975255</v>
+        <v>89.47373486958038</v>
       </c>
       <c r="G34">
-        <v>71.74999136098272</v>
+        <v>121.6630288294925</v>
       </c>
       <c r="H34">
-        <v>19.30335551910928</v>
+        <v>32.731776749794</v>
       </c>
       <c r="I34">
-        <v>684.7653408985517</v>
+        <v>1161.123838914936</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>348.7417588918851</v>
+        <v>591.3447215992827</v>
       </c>
       <c r="C35">
-        <v>11.7960740402756</v>
+        <v>20.00203859003254</v>
       </c>
       <c r="D35">
-        <v>53.11382091806294</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E35">
-        <v>120.7777560973442</v>
+        <v>204.7970646868012</v>
       </c>
       <c r="F35">
-        <v>37.56263706389164</v>
+        <v>63.69316719529453</v>
       </c>
       <c r="G35">
-        <v>44.84374460061421</v>
+        <v>76.03939301843276</v>
       </c>
       <c r="H35">
-        <v>3.509701003474414</v>
+        <v>5.951232136326181</v>
       </c>
       <c r="I35">
-        <v>620.3454926155481</v>
+        <v>1051.890183130711</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>250.930454766165</v>
+        <v>425.4907711252361</v>
       </c>
       <c r="C36">
-        <v>16.21960180537895</v>
+        <v>27.50280306129474</v>
       </c>
       <c r="D36">
-        <v>46.67578201890379</v>
+        <v>79.14589124944555</v>
       </c>
       <c r="E36">
-        <v>114.2492287407311</v>
+        <v>193.7269530821092</v>
       </c>
       <c r="F36">
-        <v>23.70023529031258</v>
+        <v>40.18735549226917</v>
       </c>
       <c r="G36">
-        <v>60.98749265683531</v>
+        <v>103.4135745050686</v>
       </c>
       <c r="H36">
-        <v>1.754850501737207</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I36">
-        <v>514.517645780064</v>
+        <v>872.4429645835863</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>181.0398319999688</v>
+        <v>306.9805846955992</v>
       </c>
       <c r="C37">
-        <v>25.55816042059714</v>
+        <v>43.33775027840383</v>
       </c>
       <c r="D37">
-        <v>33.7997042205855</v>
+        <v>57.31254193925367</v>
       </c>
       <c r="E37">
-        <v>97.92791034919799</v>
+        <v>166.0516740703793</v>
       </c>
       <c r="F37">
-        <v>19.22849278270644</v>
+        <v>32.60483558806743</v>
       </c>
       <c r="G37">
-        <v>62.78124244085988</v>
+        <v>106.4551502258059</v>
       </c>
       <c r="H37">
-        <v>4.387126254343018</v>
+        <v>7.439040170407726</v>
       </c>
       <c r="I37">
-        <v>424.7224684682587</v>
+        <v>720.181576967917</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>135.6909546325896</v>
+        <v>230.0846622030866</v>
       </c>
       <c r="C38">
-        <v>14.7450925503445</v>
+        <v>25.00254823754067</v>
       </c>
       <c r="D38">
-        <v>17.70460697268764</v>
+        <v>30.02085530151382</v>
       </c>
       <c r="E38">
-        <v>96.29577851004474</v>
+        <v>163.2841461692063</v>
       </c>
       <c r="F38">
-        <v>12.0737047705366</v>
+        <v>20.47280374134467</v>
       </c>
       <c r="G38">
-        <v>32.28749611244223</v>
+        <v>54.74836297327161</v>
       </c>
       <c r="H38">
-        <v>4.387126254343018</v>
+        <v>7.439040170407726</v>
       </c>
       <c r="I38">
-        <v>313.1847598029883</v>
+        <v>531.0524187963714</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>85.54043142631137</v>
+        <v>145.0468185054845</v>
       </c>
       <c r="C39">
-        <v>19.66012340045933</v>
+        <v>33.33673098338756</v>
       </c>
       <c r="D39">
-        <v>17.70460697268764</v>
+        <v>30.02085530151382</v>
       </c>
       <c r="E39">
-        <v>53.86035069205895</v>
+        <v>91.3284207387086</v>
       </c>
       <c r="F39">
-        <v>10.73218201825476</v>
+        <v>18.19804777008415</v>
       </c>
       <c r="G39">
-        <v>23.31874719231939</v>
+        <v>39.54048436958506</v>
       </c>
       <c r="H39">
-        <v>1.754850501737207</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I39">
-        <v>212.5712922038286</v>
+        <v>360.4469737369268</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>50.32836194105224</v>
+        <v>85.33939633482765</v>
       </c>
       <c r="C40">
-        <v>11.30457095526412</v>
+        <v>19.16862031544785</v>
       </c>
       <c r="D40">
-        <v>6.438038899159142</v>
+        <v>10.91667465509594</v>
       </c>
       <c r="E40">
-        <v>24.4819775872995</v>
+        <v>41.51291851759482</v>
       </c>
       <c r="F40">
-        <v>9.837833516733525</v>
+        <v>16.6815437892438</v>
       </c>
       <c r="G40">
-        <v>39.4624952485405</v>
+        <v>66.91466585622085</v>
       </c>
       <c r="H40">
-        <v>1.754850501737207</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I40">
-        <v>143.6081286497862</v>
+        <v>243.509435536594</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>30.41042364636017</v>
+        <v>51.56550096556727</v>
       </c>
       <c r="C41">
-        <v>8.355552445195215</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D41">
-        <v>1.609509724789786</v>
+        <v>2.729168663773985</v>
       </c>
       <c r="E41">
-        <v>9.792791034919805</v>
+        <v>16.60516740703793</v>
       </c>
       <c r="F41">
-        <v>14.30957602433967</v>
+        <v>24.26406369344553</v>
       </c>
       <c r="G41">
-        <v>37.66874546451591</v>
+        <v>63.87309013548353</v>
       </c>
       <c r="H41">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I41">
-        <v>103.0240235909892</v>
+        <v>174.6929095673295</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>22.76335805107662</v>
+        <v>38.59873756486905</v>
       </c>
       <c r="C42">
-        <v>12.77908021029857</v>
+        <v>21.66887513920192</v>
       </c>
       <c r="D42">
-        <v>3.219019449579571</v>
+        <v>5.458337327547969</v>
       </c>
       <c r="E42">
-        <v>3.264263678306603</v>
+        <v>5.535055802345978</v>
       </c>
       <c r="F42">
-        <v>12.0737047705366</v>
+        <v>20.47280374134467</v>
       </c>
       <c r="G42">
-        <v>26.90624676036852</v>
+        <v>45.62363581105965</v>
       </c>
       <c r="I42">
-        <v>81.00567292016648</v>
+        <v>137.3574453863692</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>13.33790510805271</v>
+        <v>22.61644779191545</v>
       </c>
       <c r="C43">
-        <v>5.898037020137799</v>
+        <v>10.00101929501627</v>
       </c>
       <c r="D43">
-        <v>4.828529174369357</v>
+        <v>8.187505991321954</v>
       </c>
       <c r="E43">
-        <v>1.632131839153301</v>
+        <v>2.767527901172989</v>
       </c>
       <c r="F43">
-        <v>9.390659265972911</v>
+        <v>15.92329179882363</v>
       </c>
       <c r="G43">
-        <v>39.4624952485405</v>
+        <v>66.91466585622085</v>
       </c>
       <c r="I43">
-        <v>74.54975765622657</v>
+        <v>126.4104586344712</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>18.13955094695168</v>
+        <v>30.75836899700504</v>
       </c>
       <c r="C44">
-        <v>4.423527765103349</v>
+        <v>7.500764471262202</v>
       </c>
       <c r="D44">
-        <v>4.828529174369357</v>
+        <v>8.187505991321954</v>
       </c>
       <c r="E44">
-        <v>13.05705471322641</v>
+        <v>22.14022320938391</v>
       </c>
       <c r="F44">
-        <v>8.943485015212296</v>
+        <v>15.16503980840346</v>
       </c>
       <c r="G44">
-        <v>21.52499740829482</v>
+        <v>36.49890864884774</v>
       </c>
       <c r="I44">
-        <v>70.91714502315791</v>
+        <v>120.2508111262243</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>36.45694062867742</v>
+        <v>61.81829063123557</v>
       </c>
       <c r="C45">
-        <v>6.881043190160769</v>
+        <v>11.66785584418565</v>
       </c>
       <c r="D45">
-        <v>4.828529174369357</v>
+        <v>8.187505991321954</v>
       </c>
       <c r="E45">
-        <v>8.160659195766504</v>
+        <v>13.83763950586494</v>
       </c>
       <c r="F45">
-        <v>12.0737047705366</v>
+        <v>20.47280374134467</v>
       </c>
       <c r="G45">
-        <v>44.84374460061421</v>
+        <v>76.03939301843276</v>
       </c>
       <c r="H45">
-        <v>2.63227575260581</v>
+        <v>4.463424102244636</v>
       </c>
       <c r="I45">
-        <v>115.8768973127306</v>
+        <v>196.4869128346302</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>108.125950742614</v>
+        <v>183.3440034331281</v>
       </c>
       <c r="C46">
-        <v>8.847055530206697</v>
+        <v>15.0015289425244</v>
       </c>
       <c r="D46">
-        <v>30.58068477100592</v>
+        <v>51.8542046117057</v>
       </c>
       <c r="E46">
-        <v>35.90690046137261</v>
+        <v>60.88561382580574</v>
       </c>
       <c r="F46">
-        <v>27.72480354715812</v>
+        <v>47.01162340605072</v>
       </c>
       <c r="G46">
-        <v>86.09998963317928</v>
+        <v>145.995634595391</v>
       </c>
       <c r="H46">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I46">
-        <v>298.1628099364052</v>
+        <v>505.5804168486871</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>183.5295742868053</v>
+        <v>311.2023216167567</v>
       </c>
       <c r="C47">
-        <v>6.389540105149284</v>
+        <v>10.83443756960096</v>
       </c>
       <c r="D47">
-        <v>41.84725284453442</v>
+        <v>70.9583852581236</v>
       </c>
       <c r="E47">
-        <v>96.29577851004474</v>
+        <v>163.2841461692063</v>
       </c>
       <c r="F47">
-        <v>38.00981131465225</v>
+        <v>64.45141918571471</v>
       </c>
       <c r="G47">
-        <v>118.3874857456215</v>
+        <v>200.7439975686625</v>
       </c>
       <c r="H47">
-        <v>10.52910301042324</v>
+        <v>17.85369640897854</v>
       </c>
       <c r="I47">
-        <v>494.9885458172307</v>
+        <v>839.3284037770433</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>288.2765890687124</v>
+        <v>488.8168249425996</v>
       </c>
       <c r="C48">
-        <v>6.389540105149284</v>
+        <v>10.83443756960096</v>
       </c>
       <c r="D48">
-        <v>41.84725284453442</v>
+        <v>70.9583852581236</v>
       </c>
       <c r="E48">
-        <v>120.7777560973442</v>
+        <v>204.7970646868012</v>
       </c>
       <c r="F48">
-        <v>56.79112984659808</v>
+        <v>96.29800278336195</v>
       </c>
       <c r="G48">
-        <v>134.5312338018426</v>
+        <v>228.1181790552983</v>
       </c>
       <c r="H48">
-        <v>18.42593026824067</v>
+        <v>31.24396871571244</v>
       </c>
       <c r="I48">
-        <v>667.0394320324216</v>
+        <v>1131.066863011498</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>280.2738460038809</v>
+        <v>475.2469562674502</v>
       </c>
       <c r="C49">
-        <v>10.81306787025263</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D49">
-        <v>45.06627229411399</v>
+        <v>76.41672258567155</v>
       </c>
       <c r="E49">
-        <v>114.2492287407311</v>
+        <v>193.7269530821092</v>
       </c>
       <c r="F49">
-        <v>47.40047058062517</v>
+        <v>80.37471098453834</v>
       </c>
       <c r="G49">
-        <v>161.4374805622112</v>
+        <v>273.7418148663581</v>
       </c>
       <c r="H49">
-        <v>3.509701003474414</v>
+        <v>5.951232136326181</v>
       </c>
       <c r="I49">
-        <v>662.7500670552893</v>
+        <v>1123.793591963317</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>457.756903308369</v>
+        <v>269.2948207174536</v>
       </c>
       <c r="C2">
-        <v>20.00203859003254</v>
+        <v>11.76704350531183</v>
       </c>
       <c r="D2">
-        <v>117.3542525422813</v>
+        <v>69.03859269057284</v>
       </c>
       <c r="E2">
-        <v>149.4465066633413</v>
+        <v>87.91821582129805</v>
       </c>
       <c r="F2">
-        <v>159.9911699786565</v>
+        <v>94.12155911661648</v>
       </c>
       <c r="G2">
-        <v>644.8140527963099</v>
+        <v>379.3390847606738</v>
       </c>
       <c r="H2">
-        <v>25.29273657938627</v>
+        <v>14.87951992285133</v>
       </c>
       <c r="I2">
-        <v>1574.657660458377</v>
+        <v>926.3588365347779</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>340.4529274276339</v>
+        <v>200.2858053952602</v>
       </c>
       <c r="C3">
-        <v>20.83545686461722</v>
+        <v>12.25733698469983</v>
       </c>
       <c r="D3">
-        <v>114.6250838785073</v>
+        <v>67.43304402335023</v>
       </c>
       <c r="E3">
-        <v>105.1660602445735</v>
+        <v>61.86837409646898</v>
       </c>
       <c r="F3">
-        <v>166.815437892438</v>
+        <v>98.13622277561909</v>
       </c>
       <c r="G3">
-        <v>453.1947823898593</v>
+        <v>266.6109605157566</v>
       </c>
       <c r="H3">
-        <v>19.34150444306009</v>
+        <v>11.37845641159219</v>
       </c>
       <c r="I3">
-        <v>1220.431253140689</v>
+        <v>717.9702002027473</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>368.1957700523836</v>
+        <v>216.6067036205605</v>
       </c>
       <c r="C4">
-        <v>22.5022934137866</v>
+        <v>13.23792394347582</v>
       </c>
       <c r="D4">
-        <v>95.52090323208945</v>
+        <v>56.19420335279185</v>
       </c>
       <c r="E4">
-        <v>149.4465066633413</v>
+        <v>87.91821582129805</v>
       </c>
       <c r="F4">
-        <v>137.2436102660513</v>
+        <v>80.73934691994116</v>
       </c>
       <c r="G4">
-        <v>447.1116309483848</v>
+        <v>263.0322899048069</v>
       </c>
       <c r="H4">
-        <v>8.926848204489271</v>
+        <v>5.251595266888705</v>
       </c>
       <c r="I4">
-        <v>1228.947562780526</v>
+        <v>722.9802788297629</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>343.1669011626639</v>
+        <v>201.8824150042571</v>
       </c>
       <c r="C5">
-        <v>27.50280306129474</v>
+        <v>16.17968481980378</v>
       </c>
       <c r="D5">
-        <v>125.5417585336033</v>
+        <v>73.85523869224072</v>
       </c>
       <c r="E5">
-        <v>121.7712276516115</v>
+        <v>71.63706474327989</v>
       </c>
       <c r="F5">
-        <v>115.2543025438663</v>
+        <v>67.80320846315499</v>
       </c>
       <c r="G5">
-        <v>404.5295708580623</v>
+        <v>237.9815956281586</v>
       </c>
       <c r="H5">
-        <v>16.365888374897</v>
+        <v>9.627924655962627</v>
       </c>
       <c r="I5">
-        <v>1154.132452185999</v>
+        <v>678.9671320068577</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>356.4352172005877</v>
+        <v>209.6880619815745</v>
       </c>
       <c r="C6">
-        <v>33.33673098338756</v>
+        <v>19.61173917551972</v>
       </c>
       <c r="D6">
-        <v>106.4375778871854</v>
+        <v>62.61639802168234</v>
       </c>
       <c r="E6">
-        <v>157.7490903668603</v>
+        <v>92.80256114470347</v>
       </c>
       <c r="F6">
-        <v>133.4523503139504</v>
+        <v>78.50897822049525</v>
       </c>
       <c r="G6">
-        <v>419.737449461749</v>
+        <v>246.9282721555329</v>
       </c>
       <c r="H6">
-        <v>17.85369640897854</v>
+        <v>10.50319053377741</v>
       </c>
       <c r="I6">
-        <v>1225.002112622699</v>
+        <v>720.6592012332857</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>350.404164456077</v>
+        <v>206.1400406282483</v>
       </c>
       <c r="C7">
-        <v>26.66938478671005</v>
+        <v>15.68939134041578</v>
       </c>
       <c r="D7">
-        <v>131.0000958611513</v>
+        <v>77.06633602668599</v>
       </c>
       <c r="E7">
-        <v>119.0036997504385</v>
+        <v>70.00894963547807</v>
       </c>
       <c r="F7">
-        <v>150.1338941031942</v>
+        <v>88.32260049805717</v>
       </c>
       <c r="G7">
-        <v>428.8621766239607</v>
+        <v>252.2962780719576</v>
       </c>
       <c r="H7">
-        <v>16.365888374897</v>
+        <v>9.627924655962627</v>
       </c>
       <c r="I7">
-        <v>1222.439303956429</v>
+        <v>719.1515208568055</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>369.1004279640603</v>
+        <v>217.1389068235594</v>
       </c>
       <c r="C8">
-        <v>29.16963961046412</v>
+        <v>17.16027177857976</v>
       </c>
       <c r="D8">
-        <v>90.06256590454149</v>
+        <v>52.9831060183466</v>
       </c>
       <c r="E8">
-        <v>127.3062834539574</v>
+        <v>74.89329495888353</v>
       </c>
       <c r="F8">
-        <v>134.9688542947908</v>
+        <v>79.40112570027361</v>
       </c>
       <c r="G8">
-        <v>328.4901778396295</v>
+        <v>193.2482129912867</v>
       </c>
       <c r="H8">
-        <v>20.82931247714163</v>
+        <v>12.25372228940698</v>
       </c>
       <c r="I8">
-        <v>1099.927261544585</v>
+        <v>647.0786405603366</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>503.5929041666509</v>
+        <v>296.2597830027321</v>
       </c>
       <c r="C9">
-        <v>16.66836549169378</v>
+        <v>9.805869587759862</v>
       </c>
       <c r="D9">
-        <v>180.125131809083</v>
+        <v>105.9662120366932</v>
       </c>
       <c r="E9">
-        <v>171.5867298727252</v>
+        <v>100.9431366837126</v>
       </c>
       <c r="F9">
-        <v>149.375642112774</v>
+        <v>87.87652675816798</v>
       </c>
       <c r="G9">
-        <v>319.3654506774178</v>
+        <v>187.880207074862</v>
       </c>
       <c r="H9">
-        <v>14.87808034081545</v>
+        <v>8.75265877814784</v>
       </c>
       <c r="I9">
-        <v>1355.59230447116</v>
+        <v>797.4843939220757</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>613.9611693911985</v>
+        <v>361.1885737686005</v>
       </c>
       <c r="C10">
-        <v>22.5022934137866</v>
+        <v>13.23792394347582</v>
       </c>
       <c r="D10">
-        <v>106.4375778871854</v>
+        <v>62.61639802168234</v>
       </c>
       <c r="E10">
-        <v>174.3542577738982</v>
+        <v>102.5712517915144</v>
       </c>
       <c r="F10">
-        <v>89.47373486958038</v>
+        <v>52.63670130692296</v>
       </c>
       <c r="G10">
-        <v>121.6630288294925</v>
+        <v>71.57341221899505</v>
       </c>
       <c r="H10">
-        <v>32.731776749794</v>
+        <v>19.25584931192525</v>
       </c>
       <c r="I10">
-        <v>1161.123838914936</v>
+        <v>683.0801103631163</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>591.3447215992827</v>
+        <v>347.8834936936277</v>
       </c>
       <c r="C11">
-        <v>20.00203859003254</v>
+        <v>11.76704350531183</v>
       </c>
       <c r="D11">
-        <v>90.06256590454149</v>
+        <v>52.9831060183466</v>
       </c>
       <c r="E11">
-        <v>204.7970646868012</v>
+        <v>120.4805179773344</v>
       </c>
       <c r="F11">
-        <v>63.69316719529453</v>
+        <v>37.47019415069092</v>
       </c>
       <c r="G11">
-        <v>76.03939301843276</v>
+        <v>44.73338263687192</v>
       </c>
       <c r="H11">
-        <v>5.951232136326181</v>
+        <v>3.501063511259137</v>
       </c>
       <c r="I11">
-        <v>1051.890183130711</v>
+        <v>618.8188014934425</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>425.4907711252361</v>
+        <v>250.3129064771587</v>
       </c>
       <c r="C12">
-        <v>27.50280306129474</v>
+        <v>16.17968481980378</v>
       </c>
       <c r="D12">
-        <v>79.14589124944555</v>
+        <v>46.5609113494561</v>
       </c>
       <c r="E12">
-        <v>193.7269530821092</v>
+        <v>113.9680575461271</v>
       </c>
       <c r="F12">
-        <v>40.18735549226917</v>
+        <v>23.64190821412641</v>
       </c>
       <c r="G12">
-        <v>103.4135745050686</v>
+        <v>60.83740038614581</v>
       </c>
       <c r="H12">
-        <v>2.97561606816309</v>
+        <v>1.750531755629568</v>
       </c>
       <c r="I12">
-        <v>872.4429645835863</v>
+        <v>513.2514005484476</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>306.9805846955992</v>
+        <v>180.5942868843002</v>
       </c>
       <c r="C13">
-        <v>43.33775027840383</v>
+        <v>25.49526092817564</v>
       </c>
       <c r="D13">
-        <v>57.31254193925367</v>
+        <v>33.71652201167512</v>
       </c>
       <c r="E13">
-        <v>166.0516740703793</v>
+        <v>97.68690646810896</v>
       </c>
       <c r="F13">
-        <v>32.60483558806743</v>
+        <v>19.18117081523464</v>
       </c>
       <c r="G13">
-        <v>106.4551502258059</v>
+        <v>62.62673569162069</v>
       </c>
       <c r="H13">
-        <v>7.439040170407726</v>
+        <v>4.37632938907392</v>
       </c>
       <c r="I13">
-        <v>720.181576967917</v>
+        <v>423.6772121881892</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>230.0846622030866</v>
+        <v>135.3570146293921</v>
       </c>
       <c r="C14">
-        <v>25.00254823754067</v>
+        <v>14.7088043816398</v>
       </c>
       <c r="D14">
-        <v>30.02085530151382</v>
+        <v>17.66103533944887</v>
       </c>
       <c r="E14">
-        <v>163.2841461692063</v>
+        <v>96.05879136030714</v>
       </c>
       <c r="F14">
-        <v>20.47280374134467</v>
+        <v>12.0439909770078</v>
       </c>
       <c r="G14">
-        <v>54.74836297327161</v>
+        <v>32.20803549854778</v>
       </c>
       <c r="H14">
-        <v>7.439040170407726</v>
+        <v>4.37632938907392</v>
       </c>
       <c r="I14">
-        <v>531.0524187963714</v>
+        <v>312.4140015754174</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>145.0468185054845</v>
+        <v>85.3299135474936</v>
       </c>
       <c r="C15">
-        <v>33.33673098338756</v>
+        <v>19.61173917551972</v>
       </c>
       <c r="D15">
-        <v>30.02085530151382</v>
+        <v>17.66103533944887</v>
       </c>
       <c r="E15">
-        <v>91.3284207387086</v>
+        <v>53.72779855745992</v>
       </c>
       <c r="F15">
-        <v>18.19804777008415</v>
+        <v>10.70576975734026</v>
       </c>
       <c r="G15">
-        <v>39.54048436958506</v>
+        <v>23.26135897117339</v>
       </c>
       <c r="H15">
-        <v>2.97561606816309</v>
+        <v>1.750531755629568</v>
       </c>
       <c r="I15">
-        <v>360.4469737369268</v>
+        <v>212.0481471040653</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>85.33939633482765</v>
+        <v>50.2045021495648</v>
       </c>
       <c r="C16">
-        <v>19.16862031544785</v>
+        <v>11.27675002592384</v>
       </c>
       <c r="D16">
-        <v>10.91667465509594</v>
+        <v>6.422194668890497</v>
       </c>
       <c r="E16">
-        <v>41.51291851759482</v>
+        <v>24.42172661702724</v>
       </c>
       <c r="F16">
-        <v>16.6815437892438</v>
+        <v>9.813622277561906</v>
       </c>
       <c r="G16">
-        <v>66.91466585622085</v>
+        <v>39.36537672044729</v>
       </c>
       <c r="H16">
-        <v>2.97561606816309</v>
+        <v>1.750531755629568</v>
       </c>
       <c r="I16">
-        <v>243.509435536594</v>
+        <v>143.2547042150451</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>51.56550096556727</v>
+        <v>30.33558257093846</v>
       </c>
       <c r="C17">
-        <v>14.16811066793972</v>
+        <v>8.334989149595884</v>
       </c>
       <c r="D17">
-        <v>2.729168663773985</v>
+        <v>1.605548667222624</v>
       </c>
       <c r="E17">
-        <v>16.60516740703793</v>
+        <v>9.768690646810889</v>
       </c>
       <c r="F17">
-        <v>24.26406369344553</v>
+        <v>14.27435967645368</v>
       </c>
       <c r="G17">
-        <v>63.87309013548353</v>
+        <v>37.57604141497241</v>
       </c>
       <c r="H17">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I17">
-        <v>174.6929095673295</v>
+        <v>102.7704780038087</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>38.59873756486905</v>
+        <v>22.70733666128727</v>
       </c>
       <c r="C18">
-        <v>21.66887513920192</v>
+        <v>12.74763046408782</v>
       </c>
       <c r="D18">
-        <v>5.458337327547969</v>
+        <v>3.211097334445248</v>
       </c>
       <c r="E18">
-        <v>5.535055802345978</v>
+        <v>3.256230215603631</v>
       </c>
       <c r="F18">
-        <v>20.47280374134467</v>
+        <v>12.0439909770078</v>
       </c>
       <c r="G18">
-        <v>45.62363581105965</v>
+        <v>26.84002958212315</v>
       </c>
       <c r="I18">
-        <v>137.3574453863692</v>
+        <v>80.80631523455492</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>22.61644779191545</v>
+        <v>13.305080074973</v>
       </c>
       <c r="C19">
-        <v>10.00101929501627</v>
+        <v>5.883521752655917</v>
       </c>
       <c r="D19">
-        <v>8.187505991321954</v>
+        <v>4.816646001667874</v>
       </c>
       <c r="E19">
-        <v>2.767527901172989</v>
+        <v>1.628115107801816</v>
       </c>
       <c r="F19">
-        <v>15.92329179882363</v>
+        <v>9.367548537672729</v>
       </c>
       <c r="G19">
-        <v>66.91466585622085</v>
+        <v>39.36537672044729</v>
       </c>
       <c r="I19">
-        <v>126.4104586344712</v>
+        <v>74.36628819521863</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>30.75836899700504</v>
+        <v>18.09490890196329</v>
       </c>
       <c r="C20">
-        <v>7.500764471262202</v>
+        <v>4.412641314491937</v>
       </c>
       <c r="D20">
-        <v>8.187505991321954</v>
+        <v>4.816646001667874</v>
       </c>
       <c r="E20">
-        <v>22.14022320938391</v>
+        <v>13.02492086241453</v>
       </c>
       <c r="F20">
-        <v>15.16503980840346</v>
+        <v>8.921474797783553</v>
       </c>
       <c r="G20">
-        <v>36.49890864884774</v>
+        <v>21.47202366569852</v>
       </c>
       <c r="I20">
-        <v>120.2508111262243</v>
+        <v>70.7426155440197</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>61.81829063123557</v>
+        <v>36.36721887159289</v>
       </c>
       <c r="C21">
-        <v>11.66785584418565</v>
+        <v>6.864108711431905</v>
       </c>
       <c r="D21">
-        <v>8.187505991321954</v>
+        <v>4.816646001667874</v>
       </c>
       <c r="E21">
-        <v>13.83763950586494</v>
+        <v>8.140575539009079</v>
       </c>
       <c r="F21">
-        <v>20.47280374134467</v>
+        <v>12.0439909770078</v>
       </c>
       <c r="G21">
-        <v>76.03939301843276</v>
+        <v>44.73338263687192</v>
       </c>
       <c r="H21">
-        <v>4.463424102244636</v>
+        <v>2.625797633444352</v>
       </c>
       <c r="I21">
-        <v>196.4869128346302</v>
+        <v>115.5917203710258</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>183.3440034331281</v>
+        <v>107.8598491411145</v>
       </c>
       <c r="C22">
-        <v>15.0015289425244</v>
+        <v>8.825282628983874</v>
       </c>
       <c r="D22">
-        <v>51.8542046117057</v>
+        <v>30.50542467722986</v>
       </c>
       <c r="E22">
-        <v>60.88561382580574</v>
+        <v>35.81853237163995</v>
       </c>
       <c r="F22">
-        <v>47.01162340605072</v>
+        <v>27.65657187312901</v>
       </c>
       <c r="G22">
-        <v>145.995634595391</v>
+        <v>85.88809466279407</v>
       </c>
       <c r="H22">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I22">
-        <v>505.5804168486871</v>
+        <v>297.429021232706</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>311.2023216167567</v>
+        <v>183.0779018316286</v>
       </c>
       <c r="C23">
-        <v>10.83443756960096</v>
+        <v>6.373815232043909</v>
       </c>
       <c r="D23">
-        <v>70.9583852581236</v>
+        <v>41.74426534778824</v>
       </c>
       <c r="E23">
-        <v>163.2841461692063</v>
+        <v>96.05879136030714</v>
       </c>
       <c r="F23">
-        <v>64.45141918571471</v>
+        <v>37.91626789058009</v>
       </c>
       <c r="G23">
-        <v>200.7439975686625</v>
+        <v>118.0961301613418</v>
       </c>
       <c r="H23">
-        <v>17.85369640897854</v>
+        <v>10.50319053377741</v>
       </c>
       <c r="I23">
-        <v>839.3284037770433</v>
+        <v>493.7703623574673</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>488.8168249425996</v>
+        <v>287.5671306870832</v>
       </c>
       <c r="C24">
-        <v>10.83443756960096</v>
+        <v>6.373815232043909</v>
       </c>
       <c r="D24">
-        <v>70.9583852581236</v>
+        <v>41.74426534778824</v>
       </c>
       <c r="E24">
-        <v>204.7970646868012</v>
+        <v>120.4805179773344</v>
       </c>
       <c r="F24">
-        <v>96.29800278336195</v>
+        <v>56.65136496592555</v>
       </c>
       <c r="G24">
-        <v>228.1181790552983</v>
+        <v>134.2001479106158</v>
       </c>
       <c r="H24">
-        <v>31.24396871571244</v>
+        <v>18.38058343411046</v>
       </c>
       <c r="I24">
-        <v>1131.066863011498</v>
+        <v>665.3978255549016</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>475.2469562674502</v>
+        <v>279.5840826420993</v>
       </c>
       <c r="C25">
-        <v>18.33520204086316</v>
+        <v>10.78645654653585</v>
       </c>
       <c r="D25">
-        <v>76.41672258567155</v>
+        <v>44.95536268223348</v>
       </c>
       <c r="E25">
-        <v>193.7269530821092</v>
+        <v>113.9680575461271</v>
       </c>
       <c r="F25">
-        <v>80.37471098453834</v>
+        <v>47.28381642825282</v>
       </c>
       <c r="G25">
-        <v>273.7418148663581</v>
+        <v>161.0401774927389</v>
       </c>
       <c r="H25">
-        <v>5.951232136326181</v>
+        <v>3.501063511259137</v>
       </c>
       <c r="I25">
-        <v>1123.793591963317</v>
+        <v>661.1190168492467</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>457.756903308369</v>
+        <v>269.2948207174536</v>
       </c>
       <c r="C26">
-        <v>20.00203859003254</v>
+        <v>11.76704350531183</v>
       </c>
       <c r="D26">
-        <v>117.3542525422813</v>
+        <v>69.03859269057284</v>
       </c>
       <c r="E26">
-        <v>149.4465066633413</v>
+        <v>87.91821582129805</v>
       </c>
       <c r="F26">
-        <v>159.9911699786565</v>
+        <v>94.12155911661648</v>
       </c>
       <c r="G26">
-        <v>644.8140527963099</v>
+        <v>379.3390847606738</v>
       </c>
       <c r="H26">
-        <v>25.29273657938627</v>
+        <v>14.87951992285133</v>
       </c>
       <c r="I26">
-        <v>1574.657660458377</v>
+        <v>926.3588365347779</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>373.6237175224435</v>
+        <v>219.799922838554</v>
       </c>
       <c r="C27">
-        <v>22.5022934137866</v>
+        <v>13.23792394347582</v>
       </c>
       <c r="D27">
-        <v>76.41672258567155</v>
+        <v>44.95536268223348</v>
       </c>
       <c r="E27">
-        <v>146.6789787621684</v>
+        <v>86.29010071349622</v>
       </c>
       <c r="F27">
-        <v>154.6834060457153</v>
+        <v>90.99904293739223</v>
       </c>
       <c r="G27">
-        <v>556.6083568949281</v>
+        <v>327.4483609019025</v>
       </c>
       <c r="H27">
-        <v>19.34150444306009</v>
+        <v>11.37845641159219</v>
       </c>
       <c r="I27">
-        <v>1349.854979667773</v>
+        <v>794.1091704286464</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>401.3665601471931</v>
+        <v>236.1208210638542</v>
       </c>
       <c r="C28">
-        <v>40.00407718006507</v>
+        <v>23.53408701062367</v>
       </c>
       <c r="D28">
-        <v>114.6250838785073</v>
+        <v>67.43304402335023</v>
       </c>
       <c r="E28">
-        <v>163.2841461692063</v>
+        <v>96.05879136030714</v>
       </c>
       <c r="F28">
-        <v>115.2543025438663</v>
+        <v>67.80320846315499</v>
       </c>
       <c r="G28">
-        <v>495.7768424801818</v>
+        <v>291.6616547924049</v>
       </c>
       <c r="H28">
-        <v>13.39027230673391</v>
+        <v>7.877392900333057</v>
       </c>
       <c r="I28">
-        <v>1343.701284705754</v>
+        <v>790.4889996140282</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>362.7678225823238</v>
+        <v>213.413484402567</v>
       </c>
       <c r="C29">
-        <v>19.16862031544785</v>
+        <v>11.27675002592384</v>
       </c>
       <c r="D29">
-        <v>103.7084092234114</v>
+        <v>61.01084935445972</v>
       </c>
       <c r="E29">
-        <v>177.1217856750713</v>
+        <v>104.1993668993162</v>
       </c>
       <c r="F29">
-        <v>101.6057667163032</v>
+        <v>59.7738811451498</v>
       </c>
       <c r="G29">
-        <v>313.2822992359431</v>
+        <v>184.3015364639123</v>
       </c>
       <c r="H29">
-        <v>2.97561606816309</v>
+        <v>1.750531755629568</v>
       </c>
       <c r="I29">
-        <v>1080.630319816664</v>
+        <v>635.7264000469585</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>380.8609808158564</v>
+        <v>224.0575484625453</v>
       </c>
       <c r="C30">
-        <v>20.83545686461722</v>
+        <v>12.25733698469983</v>
       </c>
       <c r="D30">
-        <v>98.25007189586343</v>
+        <v>57.79975202001448</v>
       </c>
       <c r="E30">
-        <v>146.6789787621684</v>
+        <v>86.29010071349622</v>
       </c>
       <c r="F30">
-        <v>156.1999100265556</v>
+        <v>91.89119041717059</v>
       </c>
       <c r="G30">
-        <v>383.2385408129012</v>
+        <v>225.4562484898345</v>
       </c>
       <c r="H30">
-        <v>11.90246427265236</v>
+        <v>7.002127022518273</v>
       </c>
       <c r="I30">
-        <v>1197.966403450615</v>
+        <v>704.7543041102792</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>389.3044546581715</v>
+        <v>229.0247783572019</v>
       </c>
       <c r="C31">
-        <v>20.83545686461722</v>
+        <v>12.25733698469983</v>
       </c>
       <c r="D31">
-        <v>103.7084092234114</v>
+        <v>61.01084935445972</v>
       </c>
       <c r="E31">
-        <v>154.9815624656873</v>
+        <v>91.17444603690167</v>
       </c>
       <c r="F31">
-        <v>124.3533264289083</v>
+        <v>73.15609334182514</v>
       </c>
       <c r="G31">
-        <v>355.8643593262655</v>
+        <v>209.3522307405605</v>
       </c>
       <c r="H31">
-        <v>29.7561606816309</v>
+        <v>17.50531755629568</v>
       </c>
       <c r="I31">
-        <v>1178.803729648692</v>
+        <v>693.4810523719445</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>458.0584559455944</v>
+        <v>269.4722217851199</v>
       </c>
       <c r="C32">
-        <v>22.5022934137866</v>
+        <v>13.23792394347582</v>
       </c>
       <c r="D32">
-        <v>65.50004793057563</v>
+        <v>38.53316801334299</v>
       </c>
       <c r="E32">
-        <v>168.8192019715523</v>
+        <v>99.31502157591078</v>
       </c>
       <c r="F32">
-        <v>147.1008861415136</v>
+        <v>86.53830553850045</v>
       </c>
       <c r="G32">
-        <v>334.5733292811042</v>
+        <v>196.8268836022364</v>
       </c>
       <c r="H32">
-        <v>20.82931247714163</v>
+        <v>12.25372228940698</v>
       </c>
       <c r="I32">
-        <v>1217.383527161268</v>
+        <v>716.1772467479933</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>503.5929041666509</v>
+        <v>296.2597830027321</v>
       </c>
       <c r="C33">
-        <v>16.66836549169378</v>
+        <v>9.805869587759862</v>
       </c>
       <c r="D33">
-        <v>180.125131809083</v>
+        <v>105.9662120366932</v>
       </c>
       <c r="E33">
-        <v>171.5867298727252</v>
+        <v>100.9431366837126</v>
       </c>
       <c r="F33">
-        <v>149.375642112774</v>
+        <v>87.87652675816798</v>
       </c>
       <c r="G33">
-        <v>319.3654506774178</v>
+        <v>187.880207074862</v>
       </c>
       <c r="H33">
-        <v>14.87808034081545</v>
+        <v>8.75265877814784</v>
       </c>
       <c r="I33">
-        <v>1355.59230447116</v>
+        <v>797.4843939220757</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>613.9611693911985</v>
+        <v>361.1885737686005</v>
       </c>
       <c r="C34">
-        <v>22.5022934137866</v>
+        <v>13.23792394347582</v>
       </c>
       <c r="D34">
-        <v>106.4375778871854</v>
+        <v>62.61639802168234</v>
       </c>
       <c r="E34">
-        <v>174.3542577738982</v>
+        <v>102.5712517915144</v>
       </c>
       <c r="F34">
-        <v>89.47373486958038</v>
+        <v>52.63670130692296</v>
       </c>
       <c r="G34">
-        <v>121.6630288294925</v>
+        <v>71.57341221899505</v>
       </c>
       <c r="H34">
-        <v>32.731776749794</v>
+        <v>19.25584931192525</v>
       </c>
       <c r="I34">
-        <v>1161.123838914936</v>
+        <v>683.0801103631163</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>591.3447215992827</v>
+        <v>347.8834936936277</v>
       </c>
       <c r="C35">
-        <v>20.00203859003254</v>
+        <v>11.76704350531183</v>
       </c>
       <c r="D35">
-        <v>90.06256590454149</v>
+        <v>52.9831060183466</v>
       </c>
       <c r="E35">
-        <v>204.7970646868012</v>
+        <v>120.4805179773344</v>
       </c>
       <c r="F35">
-        <v>63.69316719529453</v>
+        <v>37.47019415069092</v>
       </c>
       <c r="G35">
-        <v>76.03939301843276</v>
+        <v>44.73338263687192</v>
       </c>
       <c r="H35">
-        <v>5.951232136326181</v>
+        <v>3.501063511259137</v>
       </c>
       <c r="I35">
-        <v>1051.890183130711</v>
+        <v>618.8188014934425</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>425.4907711252361</v>
+        <v>250.3129064771587</v>
       </c>
       <c r="C36">
-        <v>27.50280306129474</v>
+        <v>16.17968481980378</v>
       </c>
       <c r="D36">
-        <v>79.14589124944555</v>
+        <v>46.5609113494561</v>
       </c>
       <c r="E36">
-        <v>193.7269530821092</v>
+        <v>113.9680575461271</v>
       </c>
       <c r="F36">
-        <v>40.18735549226917</v>
+        <v>23.64190821412641</v>
       </c>
       <c r="G36">
-        <v>103.4135745050686</v>
+        <v>60.83740038614581</v>
       </c>
       <c r="H36">
-        <v>2.97561606816309</v>
+        <v>1.750531755629568</v>
       </c>
       <c r="I36">
-        <v>872.4429645835863</v>
+        <v>513.2514005484476</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>306.9805846955992</v>
+        <v>180.5942868843002</v>
       </c>
       <c r="C37">
-        <v>43.33775027840383</v>
+        <v>25.49526092817564</v>
       </c>
       <c r="D37">
-        <v>57.31254193925367</v>
+        <v>33.71652201167512</v>
       </c>
       <c r="E37">
-        <v>166.0516740703793</v>
+        <v>97.68690646810896</v>
       </c>
       <c r="F37">
-        <v>32.60483558806743</v>
+        <v>19.18117081523464</v>
       </c>
       <c r="G37">
-        <v>106.4551502258059</v>
+        <v>62.62673569162069</v>
       </c>
       <c r="H37">
-        <v>7.439040170407726</v>
+        <v>4.37632938907392</v>
       </c>
       <c r="I37">
-        <v>720.181576967917</v>
+        <v>423.6772121881892</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>230.0846622030866</v>
+        <v>135.3570146293921</v>
       </c>
       <c r="C38">
-        <v>25.00254823754067</v>
+        <v>14.7088043816398</v>
       </c>
       <c r="D38">
-        <v>30.02085530151382</v>
+        <v>17.66103533944887</v>
       </c>
       <c r="E38">
-        <v>163.2841461692063</v>
+        <v>96.05879136030714</v>
       </c>
       <c r="F38">
-        <v>20.47280374134467</v>
+        <v>12.0439909770078</v>
       </c>
       <c r="G38">
-        <v>54.74836297327161</v>
+        <v>32.20803549854778</v>
       </c>
       <c r="H38">
-        <v>7.439040170407726</v>
+        <v>4.37632938907392</v>
       </c>
       <c r="I38">
-        <v>531.0524187963714</v>
+        <v>312.4140015754174</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>145.0468185054845</v>
+        <v>85.3299135474936</v>
       </c>
       <c r="C39">
-        <v>33.33673098338756</v>
+        <v>19.61173917551972</v>
       </c>
       <c r="D39">
-        <v>30.02085530151382</v>
+        <v>17.66103533944887</v>
       </c>
       <c r="E39">
-        <v>91.3284207387086</v>
+        <v>53.72779855745992</v>
       </c>
       <c r="F39">
-        <v>18.19804777008415</v>
+        <v>10.70576975734026</v>
       </c>
       <c r="G39">
-        <v>39.54048436958506</v>
+        <v>23.26135897117339</v>
       </c>
       <c r="H39">
-        <v>2.97561606816309</v>
+        <v>1.750531755629568</v>
       </c>
       <c r="I39">
-        <v>360.4469737369268</v>
+        <v>212.0481471040653</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>85.33939633482765</v>
+        <v>50.2045021495648</v>
       </c>
       <c r="C40">
-        <v>19.16862031544785</v>
+        <v>11.27675002592384</v>
       </c>
       <c r="D40">
-        <v>10.91667465509594</v>
+        <v>6.422194668890497</v>
       </c>
       <c r="E40">
-        <v>41.51291851759482</v>
+        <v>24.42172661702724</v>
       </c>
       <c r="F40">
-        <v>16.6815437892438</v>
+        <v>9.813622277561906</v>
       </c>
       <c r="G40">
-        <v>66.91466585622085</v>
+        <v>39.36537672044729</v>
       </c>
       <c r="H40">
-        <v>2.97561606816309</v>
+        <v>1.750531755629568</v>
       </c>
       <c r="I40">
-        <v>243.509435536594</v>
+        <v>143.2547042150451</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>51.56550096556727</v>
+        <v>30.33558257093846</v>
       </c>
       <c r="C41">
-        <v>14.16811066793972</v>
+        <v>8.334989149595884</v>
       </c>
       <c r="D41">
-        <v>2.729168663773985</v>
+        <v>1.605548667222624</v>
       </c>
       <c r="E41">
-        <v>16.60516740703793</v>
+        <v>9.768690646810889</v>
       </c>
       <c r="F41">
-        <v>24.26406369344553</v>
+        <v>14.27435967645368</v>
       </c>
       <c r="G41">
-        <v>63.87309013548353</v>
+        <v>37.57604141497241</v>
       </c>
       <c r="H41">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I41">
-        <v>174.6929095673295</v>
+        <v>102.7704780038087</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>38.59873756486905</v>
+        <v>22.70733666128727</v>
       </c>
       <c r="C42">
-        <v>21.66887513920192</v>
+        <v>12.74763046408782</v>
       </c>
       <c r="D42">
-        <v>5.458337327547969</v>
+        <v>3.211097334445248</v>
       </c>
       <c r="E42">
-        <v>5.535055802345978</v>
+        <v>3.256230215603631</v>
       </c>
       <c r="F42">
-        <v>20.47280374134467</v>
+        <v>12.0439909770078</v>
       </c>
       <c r="G42">
-        <v>45.62363581105965</v>
+        <v>26.84002958212315</v>
       </c>
       <c r="I42">
-        <v>137.3574453863692</v>
+        <v>80.80631523455492</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>22.61644779191545</v>
+        <v>13.305080074973</v>
       </c>
       <c r="C43">
-        <v>10.00101929501627</v>
+        <v>5.883521752655917</v>
       </c>
       <c r="D43">
-        <v>8.187505991321954</v>
+        <v>4.816646001667874</v>
       </c>
       <c r="E43">
-        <v>2.767527901172989</v>
+        <v>1.628115107801816</v>
       </c>
       <c r="F43">
-        <v>15.92329179882363</v>
+        <v>9.367548537672729</v>
       </c>
       <c r="G43">
-        <v>66.91466585622085</v>
+        <v>39.36537672044729</v>
       </c>
       <c r="I43">
-        <v>126.4104586344712</v>
+        <v>74.36628819521863</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>30.75836899700504</v>
+        <v>18.09490890196329</v>
       </c>
       <c r="C44">
-        <v>7.500764471262202</v>
+        <v>4.412641314491937</v>
       </c>
       <c r="D44">
-        <v>8.187505991321954</v>
+        <v>4.816646001667874</v>
       </c>
       <c r="E44">
-        <v>22.14022320938391</v>
+        <v>13.02492086241453</v>
       </c>
       <c r="F44">
-        <v>15.16503980840346</v>
+        <v>8.921474797783553</v>
       </c>
       <c r="G44">
-        <v>36.49890864884774</v>
+        <v>21.47202366569852</v>
       </c>
       <c r="I44">
-        <v>120.2508111262243</v>
+        <v>70.7426155440197</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>61.81829063123557</v>
+        <v>36.36721887159289</v>
       </c>
       <c r="C45">
-        <v>11.66785584418565</v>
+        <v>6.864108711431905</v>
       </c>
       <c r="D45">
-        <v>8.187505991321954</v>
+        <v>4.816646001667874</v>
       </c>
       <c r="E45">
-        <v>13.83763950586494</v>
+        <v>8.140575539009079</v>
       </c>
       <c r="F45">
-        <v>20.47280374134467</v>
+        <v>12.0439909770078</v>
       </c>
       <c r="G45">
-        <v>76.03939301843276</v>
+        <v>44.73338263687192</v>
       </c>
       <c r="H45">
-        <v>4.463424102244636</v>
+        <v>2.625797633444352</v>
       </c>
       <c r="I45">
-        <v>196.4869128346302</v>
+        <v>115.5917203710258</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>183.3440034331281</v>
+        <v>107.8598491411145</v>
       </c>
       <c r="C46">
-        <v>15.0015289425244</v>
+        <v>8.825282628983874</v>
       </c>
       <c r="D46">
-        <v>51.8542046117057</v>
+        <v>30.50542467722986</v>
       </c>
       <c r="E46">
-        <v>60.88561382580574</v>
+        <v>35.81853237163995</v>
       </c>
       <c r="F46">
-        <v>47.01162340605072</v>
+        <v>27.65657187312901</v>
       </c>
       <c r="G46">
-        <v>145.995634595391</v>
+        <v>85.88809466279407</v>
       </c>
       <c r="H46">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I46">
-        <v>505.5804168486871</v>
+        <v>297.429021232706</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>311.2023216167567</v>
+        <v>183.0779018316286</v>
       </c>
       <c r="C47">
-        <v>10.83443756960096</v>
+        <v>6.373815232043909</v>
       </c>
       <c r="D47">
-        <v>70.9583852581236</v>
+        <v>41.74426534778824</v>
       </c>
       <c r="E47">
-        <v>163.2841461692063</v>
+        <v>96.05879136030714</v>
       </c>
       <c r="F47">
-        <v>64.45141918571471</v>
+        <v>37.91626789058009</v>
       </c>
       <c r="G47">
-        <v>200.7439975686625</v>
+        <v>118.0961301613418</v>
       </c>
       <c r="H47">
-        <v>17.85369640897854</v>
+        <v>10.50319053377741</v>
       </c>
       <c r="I47">
-        <v>839.3284037770433</v>
+        <v>493.7703623574673</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>488.8168249425996</v>
+        <v>287.5671306870832</v>
       </c>
       <c r="C48">
-        <v>10.83443756960096</v>
+        <v>6.373815232043909</v>
       </c>
       <c r="D48">
-        <v>70.9583852581236</v>
+        <v>41.74426534778824</v>
       </c>
       <c r="E48">
-        <v>204.7970646868012</v>
+        <v>120.4805179773344</v>
       </c>
       <c r="F48">
-        <v>96.29800278336195</v>
+        <v>56.65136496592555</v>
       </c>
       <c r="G48">
-        <v>228.1181790552983</v>
+        <v>134.2001479106158</v>
       </c>
       <c r="H48">
-        <v>31.24396871571244</v>
+        <v>18.38058343411046</v>
       </c>
       <c r="I48">
-        <v>1131.066863011498</v>
+        <v>665.3978255549016</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>475.2469562674502</v>
+        <v>279.5840826420993</v>
       </c>
       <c r="C49">
-        <v>18.33520204086316</v>
+        <v>10.78645654653585</v>
       </c>
       <c r="D49">
-        <v>76.41672258567155</v>
+        <v>44.95536268223348</v>
       </c>
       <c r="E49">
-        <v>193.7269530821092</v>
+        <v>113.9680575461271</v>
       </c>
       <c r="F49">
-        <v>80.37471098453834</v>
+        <v>47.28381642825282</v>
       </c>
       <c r="G49">
-        <v>273.7418148663581</v>
+        <v>161.0401774927389</v>
       </c>
       <c r="H49">
-        <v>5.951232136326181</v>
+        <v>3.501063511259137</v>
       </c>
       <c r="I49">
-        <v>1123.793591963317</v>
+        <v>661.1190168492467</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>269.2948207174536</v>
+        <v>457.756903308369</v>
       </c>
       <c r="C2">
-        <v>11.76704350531183</v>
+        <v>20.00203859003254</v>
       </c>
       <c r="D2">
-        <v>69.03859269057284</v>
+        <v>117.3542525422813</v>
       </c>
       <c r="E2">
-        <v>87.91821582129805</v>
+        <v>149.4465066633413</v>
       </c>
       <c r="F2">
-        <v>94.12155911661648</v>
+        <v>159.9911699786565</v>
       </c>
       <c r="G2">
-        <v>379.3390847606738</v>
+        <v>644.8140527963099</v>
       </c>
       <c r="H2">
-        <v>14.87951992285133</v>
+        <v>25.29273657938627</v>
       </c>
       <c r="I2">
-        <v>926.3588365347779</v>
+        <v>1574.657660458377</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>200.2858053952602</v>
+        <v>340.4529274276339</v>
       </c>
       <c r="C3">
-        <v>12.25733698469983</v>
+        <v>20.83545686461722</v>
       </c>
       <c r="D3">
-        <v>67.43304402335023</v>
+        <v>114.6250838785073</v>
       </c>
       <c r="E3">
-        <v>61.86837409646898</v>
+        <v>105.1660602445735</v>
       </c>
       <c r="F3">
-        <v>98.13622277561909</v>
+        <v>166.815437892438</v>
       </c>
       <c r="G3">
-        <v>266.6109605157566</v>
+        <v>453.1947823898593</v>
       </c>
       <c r="H3">
-        <v>11.37845641159219</v>
+        <v>19.34150444306009</v>
       </c>
       <c r="I3">
-        <v>717.9702002027473</v>
+        <v>1220.431253140689</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>216.6067036205605</v>
+        <v>368.1957700523836</v>
       </c>
       <c r="C4">
-        <v>13.23792394347582</v>
+        <v>22.5022934137866</v>
       </c>
       <c r="D4">
-        <v>56.19420335279185</v>
+        <v>95.52090323208945</v>
       </c>
       <c r="E4">
-        <v>87.91821582129805</v>
+        <v>149.4465066633413</v>
       </c>
       <c r="F4">
-        <v>80.73934691994116</v>
+        <v>137.2436102660513</v>
       </c>
       <c r="G4">
-        <v>263.0322899048069</v>
+        <v>447.1116309483848</v>
       </c>
       <c r="H4">
-        <v>5.251595266888705</v>
+        <v>8.926848204489271</v>
       </c>
       <c r="I4">
-        <v>722.9802788297629</v>
+        <v>1228.947562780526</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>201.8824150042571</v>
+        <v>343.1669011626639</v>
       </c>
       <c r="C5">
-        <v>16.17968481980378</v>
+        <v>27.50280306129474</v>
       </c>
       <c r="D5">
-        <v>73.85523869224072</v>
+        <v>125.5417585336033</v>
       </c>
       <c r="E5">
-        <v>71.63706474327989</v>
+        <v>121.7712276516115</v>
       </c>
       <c r="F5">
-        <v>67.80320846315499</v>
+        <v>115.2543025438663</v>
       </c>
       <c r="G5">
-        <v>237.9815956281586</v>
+        <v>404.5295708580623</v>
       </c>
       <c r="H5">
-        <v>9.627924655962627</v>
+        <v>16.365888374897</v>
       </c>
       <c r="I5">
-        <v>678.9671320068577</v>
+        <v>1154.132452185999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>209.6880619815745</v>
+        <v>356.4352172005877</v>
       </c>
       <c r="C6">
-        <v>19.61173917551972</v>
+        <v>33.33673098338756</v>
       </c>
       <c r="D6">
-        <v>62.61639802168234</v>
+        <v>106.4375778871854</v>
       </c>
       <c r="E6">
-        <v>92.80256114470347</v>
+        <v>157.7490903668603</v>
       </c>
       <c r="F6">
-        <v>78.50897822049525</v>
+        <v>133.4523503139504</v>
       </c>
       <c r="G6">
-        <v>246.9282721555329</v>
+        <v>419.737449461749</v>
       </c>
       <c r="H6">
-        <v>10.50319053377741</v>
+        <v>17.85369640897854</v>
       </c>
       <c r="I6">
-        <v>720.6592012332857</v>
+        <v>1225.002112622699</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>206.1400406282483</v>
+        <v>350.404164456077</v>
       </c>
       <c r="C7">
-        <v>15.68939134041578</v>
+        <v>26.66938478671005</v>
       </c>
       <c r="D7">
-        <v>77.06633602668599</v>
+        <v>131.0000958611513</v>
       </c>
       <c r="E7">
-        <v>70.00894963547807</v>
+        <v>119.0036997504385</v>
       </c>
       <c r="F7">
-        <v>88.32260049805717</v>
+        <v>150.1338941031942</v>
       </c>
       <c r="G7">
-        <v>252.2962780719576</v>
+        <v>428.8621766239607</v>
       </c>
       <c r="H7">
-        <v>9.627924655962627</v>
+        <v>16.365888374897</v>
       </c>
       <c r="I7">
-        <v>719.1515208568055</v>
+        <v>1222.439303956429</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>217.1389068235594</v>
+        <v>369.1004279640603</v>
       </c>
       <c r="C8">
-        <v>17.16027177857976</v>
+        <v>29.16963961046412</v>
       </c>
       <c r="D8">
-        <v>52.9831060183466</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E8">
-        <v>74.89329495888353</v>
+        <v>127.3062834539574</v>
       </c>
       <c r="F8">
-        <v>79.40112570027361</v>
+        <v>134.9688542947908</v>
       </c>
       <c r="G8">
-        <v>193.2482129912867</v>
+        <v>328.4901778396295</v>
       </c>
       <c r="H8">
-        <v>12.25372228940698</v>
+        <v>20.82931247714163</v>
       </c>
       <c r="I8">
-        <v>647.0786405603366</v>
+        <v>1099.927261544585</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>296.2597830027321</v>
+        <v>503.5929041666509</v>
       </c>
       <c r="C9">
-        <v>9.805869587759862</v>
+        <v>16.66836549169378</v>
       </c>
       <c r="D9">
-        <v>105.9662120366932</v>
+        <v>180.125131809083</v>
       </c>
       <c r="E9">
-        <v>100.9431366837126</v>
+        <v>171.5867298727252</v>
       </c>
       <c r="F9">
-        <v>87.87652675816798</v>
+        <v>149.375642112774</v>
       </c>
       <c r="G9">
-        <v>187.880207074862</v>
+        <v>319.3654506774178</v>
       </c>
       <c r="H9">
-        <v>8.75265877814784</v>
+        <v>14.87808034081545</v>
       </c>
       <c r="I9">
-        <v>797.4843939220757</v>
+        <v>1355.59230447116</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>361.1885737686005</v>
+        <v>613.9611693911985</v>
       </c>
       <c r="C10">
-        <v>13.23792394347582</v>
+        <v>22.5022934137866</v>
       </c>
       <c r="D10">
-        <v>62.61639802168234</v>
+        <v>106.4375778871854</v>
       </c>
       <c r="E10">
-        <v>102.5712517915144</v>
+        <v>174.3542577738982</v>
       </c>
       <c r="F10">
-        <v>52.63670130692296</v>
+        <v>89.47373486958038</v>
       </c>
       <c r="G10">
-        <v>71.57341221899505</v>
+        <v>121.6630288294925</v>
       </c>
       <c r="H10">
-        <v>19.25584931192525</v>
+        <v>32.731776749794</v>
       </c>
       <c r="I10">
-        <v>683.0801103631163</v>
+        <v>1161.123838914936</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>347.8834936936277</v>
+        <v>591.3447215992827</v>
       </c>
       <c r="C11">
-        <v>11.76704350531183</v>
+        <v>20.00203859003254</v>
       </c>
       <c r="D11">
-        <v>52.9831060183466</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E11">
-        <v>120.4805179773344</v>
+        <v>204.7970646868012</v>
       </c>
       <c r="F11">
-        <v>37.47019415069092</v>
+        <v>63.69316719529453</v>
       </c>
       <c r="G11">
-        <v>44.73338263687192</v>
+        <v>76.03939301843276</v>
       </c>
       <c r="H11">
-        <v>3.501063511259137</v>
+        <v>5.951232136326181</v>
       </c>
       <c r="I11">
-        <v>618.8188014934425</v>
+        <v>1051.890183130711</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>250.3129064771587</v>
+        <v>425.4907711252361</v>
       </c>
       <c r="C12">
-        <v>16.17968481980378</v>
+        <v>27.50280306129474</v>
       </c>
       <c r="D12">
-        <v>46.5609113494561</v>
+        <v>79.14589124944555</v>
       </c>
       <c r="E12">
-        <v>113.9680575461271</v>
+        <v>193.7269530821092</v>
       </c>
       <c r="F12">
-        <v>23.64190821412641</v>
+        <v>40.18735549226917</v>
       </c>
       <c r="G12">
-        <v>60.83740038614581</v>
+        <v>103.4135745050686</v>
       </c>
       <c r="H12">
-        <v>1.750531755629568</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I12">
-        <v>513.2514005484476</v>
+        <v>872.4429645835863</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>180.5942868843002</v>
+        <v>306.9805846955992</v>
       </c>
       <c r="C13">
-        <v>25.49526092817564</v>
+        <v>43.33775027840383</v>
       </c>
       <c r="D13">
-        <v>33.71652201167512</v>
+        <v>57.31254193925367</v>
       </c>
       <c r="E13">
-        <v>97.68690646810896</v>
+        <v>166.0516740703793</v>
       </c>
       <c r="F13">
-        <v>19.18117081523464</v>
+        <v>32.60483558806743</v>
       </c>
       <c r="G13">
-        <v>62.62673569162069</v>
+        <v>106.4551502258059</v>
       </c>
       <c r="H13">
-        <v>4.37632938907392</v>
+        <v>7.439040170407726</v>
       </c>
       <c r="I13">
-        <v>423.6772121881892</v>
+        <v>720.181576967917</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>135.3570146293921</v>
+        <v>230.0846622030866</v>
       </c>
       <c r="C14">
-        <v>14.7088043816398</v>
+        <v>25.00254823754067</v>
       </c>
       <c r="D14">
-        <v>17.66103533944887</v>
+        <v>30.02085530151382</v>
       </c>
       <c r="E14">
-        <v>96.05879136030714</v>
+        <v>163.2841461692063</v>
       </c>
       <c r="F14">
-        <v>12.0439909770078</v>
+        <v>20.47280374134467</v>
       </c>
       <c r="G14">
-        <v>32.20803549854778</v>
+        <v>54.74836297327161</v>
       </c>
       <c r="H14">
-        <v>4.37632938907392</v>
+        <v>7.439040170407726</v>
       </c>
       <c r="I14">
-        <v>312.4140015754174</v>
+        <v>531.0524187963714</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>85.3299135474936</v>
+        <v>145.0468185054845</v>
       </c>
       <c r="C15">
-        <v>19.61173917551972</v>
+        <v>33.33673098338756</v>
       </c>
       <c r="D15">
-        <v>17.66103533944887</v>
+        <v>30.02085530151382</v>
       </c>
       <c r="E15">
-        <v>53.72779855745992</v>
+        <v>91.3284207387086</v>
       </c>
       <c r="F15">
-        <v>10.70576975734026</v>
+        <v>18.19804777008415</v>
       </c>
       <c r="G15">
-        <v>23.26135897117339</v>
+        <v>39.54048436958506</v>
       </c>
       <c r="H15">
-        <v>1.750531755629568</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I15">
-        <v>212.0481471040653</v>
+        <v>360.4469737369268</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>50.2045021495648</v>
+        <v>85.33939633482765</v>
       </c>
       <c r="C16">
-        <v>11.27675002592384</v>
+        <v>19.16862031544785</v>
       </c>
       <c r="D16">
-        <v>6.422194668890497</v>
+        <v>10.91667465509594</v>
       </c>
       <c r="E16">
-        <v>24.42172661702724</v>
+        <v>41.51291851759482</v>
       </c>
       <c r="F16">
-        <v>9.813622277561906</v>
+        <v>16.6815437892438</v>
       </c>
       <c r="G16">
-        <v>39.36537672044729</v>
+        <v>66.91466585622085</v>
       </c>
       <c r="H16">
-        <v>1.750531755629568</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I16">
-        <v>143.2547042150451</v>
+        <v>243.509435536594</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>30.33558257093846</v>
+        <v>51.56550096556727</v>
       </c>
       <c r="C17">
-        <v>8.334989149595884</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D17">
-        <v>1.605548667222624</v>
+        <v>2.729168663773985</v>
       </c>
       <c r="E17">
-        <v>9.768690646810889</v>
+        <v>16.60516740703793</v>
       </c>
       <c r="F17">
-        <v>14.27435967645368</v>
+        <v>24.26406369344553</v>
       </c>
       <c r="G17">
-        <v>37.57604141497241</v>
+        <v>63.87309013548353</v>
       </c>
       <c r="H17">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I17">
-        <v>102.7704780038087</v>
+        <v>174.6929095673295</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>22.70733666128727</v>
+        <v>38.59873756486905</v>
       </c>
       <c r="C18">
-        <v>12.74763046408782</v>
+        <v>21.66887513920192</v>
       </c>
       <c r="D18">
-        <v>3.211097334445248</v>
+        <v>5.458337327547969</v>
       </c>
       <c r="E18">
-        <v>3.256230215603631</v>
+        <v>5.535055802345978</v>
       </c>
       <c r="F18">
-        <v>12.0439909770078</v>
+        <v>20.47280374134467</v>
       </c>
       <c r="G18">
-        <v>26.84002958212315</v>
+        <v>45.62363581105965</v>
       </c>
       <c r="I18">
-        <v>80.80631523455492</v>
+        <v>137.3574453863692</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>13.305080074973</v>
+        <v>22.61644779191545</v>
       </c>
       <c r="C19">
-        <v>5.883521752655917</v>
+        <v>10.00101929501627</v>
       </c>
       <c r="D19">
-        <v>4.816646001667874</v>
+        <v>8.187505991321954</v>
       </c>
       <c r="E19">
-        <v>1.628115107801816</v>
+        <v>2.767527901172989</v>
       </c>
       <c r="F19">
-        <v>9.367548537672729</v>
+        <v>15.92329179882363</v>
       </c>
       <c r="G19">
-        <v>39.36537672044729</v>
+        <v>66.91466585622085</v>
       </c>
       <c r="I19">
-        <v>74.36628819521863</v>
+        <v>126.4104586344712</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>18.09490890196329</v>
+        <v>30.75836899700504</v>
       </c>
       <c r="C20">
-        <v>4.412641314491937</v>
+        <v>7.500764471262202</v>
       </c>
       <c r="D20">
-        <v>4.816646001667874</v>
+        <v>8.187505991321954</v>
       </c>
       <c r="E20">
-        <v>13.02492086241453</v>
+        <v>22.14022320938391</v>
       </c>
       <c r="F20">
-        <v>8.921474797783553</v>
+        <v>15.16503980840346</v>
       </c>
       <c r="G20">
-        <v>21.47202366569852</v>
+        <v>36.49890864884774</v>
       </c>
       <c r="I20">
-        <v>70.7426155440197</v>
+        <v>120.2508111262243</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>36.36721887159289</v>
+        <v>61.81829063123557</v>
       </c>
       <c r="C21">
-        <v>6.864108711431905</v>
+        <v>11.66785584418565</v>
       </c>
       <c r="D21">
-        <v>4.816646001667874</v>
+        <v>8.187505991321954</v>
       </c>
       <c r="E21">
-        <v>8.140575539009079</v>
+        <v>13.83763950586494</v>
       </c>
       <c r="F21">
-        <v>12.0439909770078</v>
+        <v>20.47280374134467</v>
       </c>
       <c r="G21">
-        <v>44.73338263687192</v>
+        <v>76.03939301843276</v>
       </c>
       <c r="H21">
-        <v>2.625797633444352</v>
+        <v>4.463424102244636</v>
       </c>
       <c r="I21">
-        <v>115.5917203710258</v>
+        <v>196.4869128346302</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>107.8598491411145</v>
+        <v>183.3440034331281</v>
       </c>
       <c r="C22">
-        <v>8.825282628983874</v>
+        <v>15.0015289425244</v>
       </c>
       <c r="D22">
-        <v>30.50542467722986</v>
+        <v>51.8542046117057</v>
       </c>
       <c r="E22">
-        <v>35.81853237163995</v>
+        <v>60.88561382580574</v>
       </c>
       <c r="F22">
-        <v>27.65657187312901</v>
+        <v>47.01162340605072</v>
       </c>
       <c r="G22">
-        <v>85.88809466279407</v>
+        <v>145.995634595391</v>
       </c>
       <c r="H22">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I22">
-        <v>297.429021232706</v>
+        <v>505.5804168486871</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>183.0779018316286</v>
+        <v>311.2023216167567</v>
       </c>
       <c r="C23">
-        <v>6.373815232043909</v>
+        <v>10.83443756960096</v>
       </c>
       <c r="D23">
-        <v>41.74426534778824</v>
+        <v>70.9583852581236</v>
       </c>
       <c r="E23">
-        <v>96.05879136030714</v>
+        <v>163.2841461692063</v>
       </c>
       <c r="F23">
-        <v>37.91626789058009</v>
+        <v>64.45141918571471</v>
       </c>
       <c r="G23">
-        <v>118.0961301613418</v>
+        <v>200.7439975686625</v>
       </c>
       <c r="H23">
-        <v>10.50319053377741</v>
+        <v>17.85369640897854</v>
       </c>
       <c r="I23">
-        <v>493.7703623574673</v>
+        <v>839.3284037770433</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>287.5671306870832</v>
+        <v>488.8168249425996</v>
       </c>
       <c r="C24">
-        <v>6.373815232043909</v>
+        <v>10.83443756960096</v>
       </c>
       <c r="D24">
-        <v>41.74426534778824</v>
+        <v>70.9583852581236</v>
       </c>
       <c r="E24">
-        <v>120.4805179773344</v>
+        <v>204.7970646868012</v>
       </c>
       <c r="F24">
-        <v>56.65136496592555</v>
+        <v>96.29800278336195</v>
       </c>
       <c r="G24">
-        <v>134.2001479106158</v>
+        <v>228.1181790552983</v>
       </c>
       <c r="H24">
-        <v>18.38058343411046</v>
+        <v>31.24396871571244</v>
       </c>
       <c r="I24">
-        <v>665.3978255549016</v>
+        <v>1131.066863011498</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>279.5840826420993</v>
+        <v>475.2469562674502</v>
       </c>
       <c r="C25">
-        <v>10.78645654653585</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D25">
-        <v>44.95536268223348</v>
+        <v>76.41672258567155</v>
       </c>
       <c r="E25">
-        <v>113.9680575461271</v>
+        <v>193.7269530821092</v>
       </c>
       <c r="F25">
-        <v>47.28381642825282</v>
+        <v>80.37471098453834</v>
       </c>
       <c r="G25">
-        <v>161.0401774927389</v>
+        <v>273.7418148663581</v>
       </c>
       <c r="H25">
-        <v>3.501063511259137</v>
+        <v>5.951232136326181</v>
       </c>
       <c r="I25">
-        <v>661.1190168492467</v>
+        <v>1123.793591963317</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>269.2948207174536</v>
+        <v>457.756903308369</v>
       </c>
       <c r="C26">
-        <v>11.76704350531183</v>
+        <v>20.00203859003254</v>
       </c>
       <c r="D26">
-        <v>69.03859269057284</v>
+        <v>117.3542525422813</v>
       </c>
       <c r="E26">
-        <v>87.91821582129805</v>
+        <v>149.4465066633413</v>
       </c>
       <c r="F26">
-        <v>94.12155911661648</v>
+        <v>159.9911699786565</v>
       </c>
       <c r="G26">
-        <v>379.3390847606738</v>
+        <v>644.8140527963099</v>
       </c>
       <c r="H26">
-        <v>14.87951992285133</v>
+        <v>25.29273657938627</v>
       </c>
       <c r="I26">
-        <v>926.3588365347779</v>
+        <v>1574.657660458377</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>219.799922838554</v>
+        <v>373.6237175224435</v>
       </c>
       <c r="C27">
-        <v>13.23792394347582</v>
+        <v>22.5022934137866</v>
       </c>
       <c r="D27">
-        <v>44.95536268223348</v>
+        <v>76.41672258567155</v>
       </c>
       <c r="E27">
-        <v>86.29010071349622</v>
+        <v>146.6789787621684</v>
       </c>
       <c r="F27">
-        <v>90.99904293739223</v>
+        <v>154.6834060457153</v>
       </c>
       <c r="G27">
-        <v>327.4483609019025</v>
+        <v>556.6083568949281</v>
       </c>
       <c r="H27">
-        <v>11.37845641159219</v>
+        <v>19.34150444306009</v>
       </c>
       <c r="I27">
-        <v>794.1091704286464</v>
+        <v>1349.854979667773</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>236.1208210638542</v>
+        <v>401.3665601471931</v>
       </c>
       <c r="C28">
-        <v>23.53408701062367</v>
+        <v>40.00407718006507</v>
       </c>
       <c r="D28">
-        <v>67.43304402335023</v>
+        <v>114.6250838785073</v>
       </c>
       <c r="E28">
-        <v>96.05879136030714</v>
+        <v>163.2841461692063</v>
       </c>
       <c r="F28">
-        <v>67.80320846315499</v>
+        <v>115.2543025438663</v>
       </c>
       <c r="G28">
-        <v>291.6616547924049</v>
+        <v>495.7768424801818</v>
       </c>
       <c r="H28">
-        <v>7.877392900333057</v>
+        <v>13.39027230673391</v>
       </c>
       <c r="I28">
-        <v>790.4889996140282</v>
+        <v>1343.701284705754</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>213.413484402567</v>
+        <v>362.7678225823238</v>
       </c>
       <c r="C29">
-        <v>11.27675002592384</v>
+        <v>19.16862031544785</v>
       </c>
       <c r="D29">
-        <v>61.01084935445972</v>
+        <v>103.7084092234114</v>
       </c>
       <c r="E29">
-        <v>104.1993668993162</v>
+        <v>177.1217856750713</v>
       </c>
       <c r="F29">
-        <v>59.7738811451498</v>
+        <v>101.6057667163032</v>
       </c>
       <c r="G29">
-        <v>184.3015364639123</v>
+        <v>313.2822992359431</v>
       </c>
       <c r="H29">
-        <v>1.750531755629568</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I29">
-        <v>635.7264000469585</v>
+        <v>1080.630319816664</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>224.0575484625453</v>
+        <v>380.8609808158564</v>
       </c>
       <c r="C30">
-        <v>12.25733698469983</v>
+        <v>20.83545686461722</v>
       </c>
       <c r="D30">
-        <v>57.79975202001448</v>
+        <v>98.25007189586343</v>
       </c>
       <c r="E30">
-        <v>86.29010071349622</v>
+        <v>146.6789787621684</v>
       </c>
       <c r="F30">
-        <v>91.89119041717059</v>
+        <v>156.1999100265556</v>
       </c>
       <c r="G30">
-        <v>225.4562484898345</v>
+        <v>383.2385408129012</v>
       </c>
       <c r="H30">
-        <v>7.002127022518273</v>
+        <v>11.90246427265236</v>
       </c>
       <c r="I30">
-        <v>704.7543041102792</v>
+        <v>1197.966403450615</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>229.0247783572019</v>
+        <v>389.3044546581715</v>
       </c>
       <c r="C31">
-        <v>12.25733698469983</v>
+        <v>20.83545686461722</v>
       </c>
       <c r="D31">
-        <v>61.01084935445972</v>
+        <v>103.7084092234114</v>
       </c>
       <c r="E31">
-        <v>91.17444603690167</v>
+        <v>154.9815624656873</v>
       </c>
       <c r="F31">
-        <v>73.15609334182514</v>
+        <v>124.3533264289083</v>
       </c>
       <c r="G31">
-        <v>209.3522307405605</v>
+        <v>355.8643593262655</v>
       </c>
       <c r="H31">
-        <v>17.50531755629568</v>
+        <v>29.7561606816309</v>
       </c>
       <c r="I31">
-        <v>693.4810523719445</v>
+        <v>1178.803729648692</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>269.4722217851199</v>
+        <v>458.0584559455944</v>
       </c>
       <c r="C32">
-        <v>13.23792394347582</v>
+        <v>22.5022934137866</v>
       </c>
       <c r="D32">
-        <v>38.53316801334299</v>
+        <v>65.50004793057563</v>
       </c>
       <c r="E32">
-        <v>99.31502157591078</v>
+        <v>168.8192019715523</v>
       </c>
       <c r="F32">
-        <v>86.53830553850045</v>
+        <v>147.1008861415136</v>
       </c>
       <c r="G32">
-        <v>196.8268836022364</v>
+        <v>334.5733292811042</v>
       </c>
       <c r="H32">
-        <v>12.25372228940698</v>
+        <v>20.82931247714163</v>
       </c>
       <c r="I32">
-        <v>716.1772467479933</v>
+        <v>1217.383527161268</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>296.2597830027321</v>
+        <v>503.5929041666509</v>
       </c>
       <c r="C33">
-        <v>9.805869587759862</v>
+        <v>16.66836549169378</v>
       </c>
       <c r="D33">
-        <v>105.9662120366932</v>
+        <v>180.125131809083</v>
       </c>
       <c r="E33">
-        <v>100.9431366837126</v>
+        <v>171.5867298727252</v>
       </c>
       <c r="F33">
-        <v>87.87652675816798</v>
+        <v>149.375642112774</v>
       </c>
       <c r="G33">
-        <v>187.880207074862</v>
+        <v>319.3654506774178</v>
       </c>
       <c r="H33">
-        <v>8.75265877814784</v>
+        <v>14.87808034081545</v>
       </c>
       <c r="I33">
-        <v>797.4843939220757</v>
+        <v>1355.59230447116</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>361.1885737686005</v>
+        <v>613.9611693911985</v>
       </c>
       <c r="C34">
-        <v>13.23792394347582</v>
+        <v>22.5022934137866</v>
       </c>
       <c r="D34">
-        <v>62.61639802168234</v>
+        <v>106.4375778871854</v>
       </c>
       <c r="E34">
-        <v>102.5712517915144</v>
+        <v>174.3542577738982</v>
       </c>
       <c r="F34">
-        <v>52.63670130692296</v>
+        <v>89.47373486958038</v>
       </c>
       <c r="G34">
-        <v>71.57341221899505</v>
+        <v>121.6630288294925</v>
       </c>
       <c r="H34">
-        <v>19.25584931192525</v>
+        <v>32.731776749794</v>
       </c>
       <c r="I34">
-        <v>683.0801103631163</v>
+        <v>1161.123838914936</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>347.8834936936277</v>
+        <v>591.3447215992827</v>
       </c>
       <c r="C35">
-        <v>11.76704350531183</v>
+        <v>20.00203859003254</v>
       </c>
       <c r="D35">
-        <v>52.9831060183466</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E35">
-        <v>120.4805179773344</v>
+        <v>204.7970646868012</v>
       </c>
       <c r="F35">
-        <v>37.47019415069092</v>
+        <v>63.69316719529453</v>
       </c>
       <c r="G35">
-        <v>44.73338263687192</v>
+        <v>76.03939301843276</v>
       </c>
       <c r="H35">
-        <v>3.501063511259137</v>
+        <v>5.951232136326181</v>
       </c>
       <c r="I35">
-        <v>618.8188014934425</v>
+        <v>1051.890183130711</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>250.3129064771587</v>
+        <v>425.4907711252361</v>
       </c>
       <c r="C36">
-        <v>16.17968481980378</v>
+        <v>27.50280306129474</v>
       </c>
       <c r="D36">
-        <v>46.5609113494561</v>
+        <v>79.14589124944555</v>
       </c>
       <c r="E36">
-        <v>113.9680575461271</v>
+        <v>193.7269530821092</v>
       </c>
       <c r="F36">
-        <v>23.64190821412641</v>
+        <v>40.18735549226917</v>
       </c>
       <c r="G36">
-        <v>60.83740038614581</v>
+        <v>103.4135745050686</v>
       </c>
       <c r="H36">
-        <v>1.750531755629568</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I36">
-        <v>513.2514005484476</v>
+        <v>872.4429645835863</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>180.5942868843002</v>
+        <v>306.9805846955992</v>
       </c>
       <c r="C37">
-        <v>25.49526092817564</v>
+        <v>43.33775027840383</v>
       </c>
       <c r="D37">
-        <v>33.71652201167512</v>
+        <v>57.31254193925367</v>
       </c>
       <c r="E37">
-        <v>97.68690646810896</v>
+        <v>166.0516740703793</v>
       </c>
       <c r="F37">
-        <v>19.18117081523464</v>
+        <v>32.60483558806743</v>
       </c>
       <c r="G37">
-        <v>62.62673569162069</v>
+        <v>106.4551502258059</v>
       </c>
       <c r="H37">
-        <v>4.37632938907392</v>
+        <v>7.439040170407726</v>
       </c>
       <c r="I37">
-        <v>423.6772121881892</v>
+        <v>720.181576967917</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>135.3570146293921</v>
+        <v>230.0846622030866</v>
       </c>
       <c r="C38">
-        <v>14.7088043816398</v>
+        <v>25.00254823754067</v>
       </c>
       <c r="D38">
-        <v>17.66103533944887</v>
+        <v>30.02085530151382</v>
       </c>
       <c r="E38">
-        <v>96.05879136030714</v>
+        <v>163.2841461692063</v>
       </c>
       <c r="F38">
-        <v>12.0439909770078</v>
+        <v>20.47280374134467</v>
       </c>
       <c r="G38">
-        <v>32.20803549854778</v>
+        <v>54.74836297327161</v>
       </c>
       <c r="H38">
-        <v>4.37632938907392</v>
+        <v>7.439040170407726</v>
       </c>
       <c r="I38">
-        <v>312.4140015754174</v>
+        <v>531.0524187963714</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>85.3299135474936</v>
+        <v>145.0468185054845</v>
       </c>
       <c r="C39">
-        <v>19.61173917551972</v>
+        <v>33.33673098338756</v>
       </c>
       <c r="D39">
-        <v>17.66103533944887</v>
+        <v>30.02085530151382</v>
       </c>
       <c r="E39">
-        <v>53.72779855745992</v>
+        <v>91.3284207387086</v>
       </c>
       <c r="F39">
-        <v>10.70576975734026</v>
+        <v>18.19804777008415</v>
       </c>
       <c r="G39">
-        <v>23.26135897117339</v>
+        <v>39.54048436958506</v>
       </c>
       <c r="H39">
-        <v>1.750531755629568</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I39">
-        <v>212.0481471040653</v>
+        <v>360.4469737369268</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>50.2045021495648</v>
+        <v>85.33939633482765</v>
       </c>
       <c r="C40">
-        <v>11.27675002592384</v>
+        <v>19.16862031544785</v>
       </c>
       <c r="D40">
-        <v>6.422194668890497</v>
+        <v>10.91667465509594</v>
       </c>
       <c r="E40">
-        <v>24.42172661702724</v>
+        <v>41.51291851759482</v>
       </c>
       <c r="F40">
-        <v>9.813622277561906</v>
+        <v>16.6815437892438</v>
       </c>
       <c r="G40">
-        <v>39.36537672044729</v>
+        <v>66.91466585622085</v>
       </c>
       <c r="H40">
-        <v>1.750531755629568</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I40">
-        <v>143.2547042150451</v>
+        <v>243.509435536594</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>30.33558257093846</v>
+        <v>51.56550096556727</v>
       </c>
       <c r="C41">
-        <v>8.334989149595884</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D41">
-        <v>1.605548667222624</v>
+        <v>2.729168663773985</v>
       </c>
       <c r="E41">
-        <v>9.768690646810889</v>
+        <v>16.60516740703793</v>
       </c>
       <c r="F41">
-        <v>14.27435967645368</v>
+        <v>24.26406369344553</v>
       </c>
       <c r="G41">
-        <v>37.57604141497241</v>
+        <v>63.87309013548353</v>
       </c>
       <c r="H41">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I41">
-        <v>102.7704780038087</v>
+        <v>174.6929095673295</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>22.70733666128727</v>
+        <v>38.59873756486905</v>
       </c>
       <c r="C42">
-        <v>12.74763046408782</v>
+        <v>21.66887513920192</v>
       </c>
       <c r="D42">
-        <v>3.211097334445248</v>
+        <v>5.458337327547969</v>
       </c>
       <c r="E42">
-        <v>3.256230215603631</v>
+        <v>5.535055802345978</v>
       </c>
       <c r="F42">
-        <v>12.0439909770078</v>
+        <v>20.47280374134467</v>
       </c>
       <c r="G42">
-        <v>26.84002958212315</v>
+        <v>45.62363581105965</v>
       </c>
       <c r="I42">
-        <v>80.80631523455492</v>
+        <v>137.3574453863692</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>13.305080074973</v>
+        <v>22.61644779191545</v>
       </c>
       <c r="C43">
-        <v>5.883521752655917</v>
+        <v>10.00101929501627</v>
       </c>
       <c r="D43">
-        <v>4.816646001667874</v>
+        <v>8.187505991321954</v>
       </c>
       <c r="E43">
-        <v>1.628115107801816</v>
+        <v>2.767527901172989</v>
       </c>
       <c r="F43">
-        <v>9.367548537672729</v>
+        <v>15.92329179882363</v>
       </c>
       <c r="G43">
-        <v>39.36537672044729</v>
+        <v>66.91466585622085</v>
       </c>
       <c r="I43">
-        <v>74.36628819521863</v>
+        <v>126.4104586344712</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>18.09490890196329</v>
+        <v>30.75836899700504</v>
       </c>
       <c r="C44">
-        <v>4.412641314491937</v>
+        <v>7.500764471262202</v>
       </c>
       <c r="D44">
-        <v>4.816646001667874</v>
+        <v>8.187505991321954</v>
       </c>
       <c r="E44">
-        <v>13.02492086241453</v>
+        <v>22.14022320938391</v>
       </c>
       <c r="F44">
-        <v>8.921474797783553</v>
+        <v>15.16503980840346</v>
       </c>
       <c r="G44">
-        <v>21.47202366569852</v>
+        <v>36.49890864884774</v>
       </c>
       <c r="I44">
-        <v>70.7426155440197</v>
+        <v>120.2508111262243</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>36.36721887159289</v>
+        <v>61.81829063123557</v>
       </c>
       <c r="C45">
-        <v>6.864108711431905</v>
+        <v>11.66785584418565</v>
       </c>
       <c r="D45">
-        <v>4.816646001667874</v>
+        <v>8.187505991321954</v>
       </c>
       <c r="E45">
-        <v>8.140575539009079</v>
+        <v>13.83763950586494</v>
       </c>
       <c r="F45">
-        <v>12.0439909770078</v>
+        <v>20.47280374134467</v>
       </c>
       <c r="G45">
-        <v>44.73338263687192</v>
+        <v>76.03939301843276</v>
       </c>
       <c r="H45">
-        <v>2.625797633444352</v>
+        <v>4.463424102244636</v>
       </c>
       <c r="I45">
-        <v>115.5917203710258</v>
+        <v>196.4869128346302</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>107.8598491411145</v>
+        <v>183.3440034331281</v>
       </c>
       <c r="C46">
-        <v>8.825282628983874</v>
+        <v>15.0015289425244</v>
       </c>
       <c r="D46">
-        <v>30.50542467722986</v>
+        <v>51.8542046117057</v>
       </c>
       <c r="E46">
-        <v>35.81853237163995</v>
+        <v>60.88561382580574</v>
       </c>
       <c r="F46">
-        <v>27.65657187312901</v>
+        <v>47.01162340605072</v>
       </c>
       <c r="G46">
-        <v>85.88809466279407</v>
+        <v>145.995634595391</v>
       </c>
       <c r="H46">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I46">
-        <v>297.429021232706</v>
+        <v>505.5804168486871</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>183.0779018316286</v>
+        <v>311.2023216167567</v>
       </c>
       <c r="C47">
-        <v>6.373815232043909</v>
+        <v>10.83443756960096</v>
       </c>
       <c r="D47">
-        <v>41.74426534778824</v>
+        <v>70.9583852581236</v>
       </c>
       <c r="E47">
-        <v>96.05879136030714</v>
+        <v>163.2841461692063</v>
       </c>
       <c r="F47">
-        <v>37.91626789058009</v>
+        <v>64.45141918571471</v>
       </c>
       <c r="G47">
-        <v>118.0961301613418</v>
+        <v>200.7439975686625</v>
       </c>
       <c r="H47">
-        <v>10.50319053377741</v>
+        <v>17.85369640897854</v>
       </c>
       <c r="I47">
-        <v>493.7703623574673</v>
+        <v>839.3284037770433</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>287.5671306870832</v>
+        <v>488.8168249425996</v>
       </c>
       <c r="C48">
-        <v>6.373815232043909</v>
+        <v>10.83443756960096</v>
       </c>
       <c r="D48">
-        <v>41.74426534778824</v>
+        <v>70.9583852581236</v>
       </c>
       <c r="E48">
-        <v>120.4805179773344</v>
+        <v>204.7970646868012</v>
       </c>
       <c r="F48">
-        <v>56.65136496592555</v>
+        <v>96.29800278336195</v>
       </c>
       <c r="G48">
-        <v>134.2001479106158</v>
+        <v>228.1181790552983</v>
       </c>
       <c r="H48">
-        <v>18.38058343411046</v>
+        <v>31.24396871571244</v>
       </c>
       <c r="I48">
-        <v>665.3978255549016</v>
+        <v>1131.066863011498</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>279.5840826420993</v>
+        <v>475.2469562674502</v>
       </c>
       <c r="C49">
-        <v>10.78645654653585</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D49">
-        <v>44.95536268223348</v>
+        <v>76.41672258567155</v>
       </c>
       <c r="E49">
-        <v>113.9680575461271</v>
+        <v>193.7269530821092</v>
       </c>
       <c r="F49">
-        <v>47.28381642825282</v>
+        <v>80.37471098453834</v>
       </c>
       <c r="G49">
-        <v>161.0401774927389</v>
+        <v>273.7418148663581</v>
       </c>
       <c r="H49">
-        <v>3.501063511259137</v>
+        <v>5.951232136326181</v>
       </c>
       <c r="I49">
-        <v>661.1190168492467</v>
+        <v>1123.793591963317</v>
       </c>
     </row>
   </sheetData>
